--- a/智慧医疗-数据结构.xlsx
+++ b/智慧医疗-数据结构.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12420" tabRatio="833" firstSheet="2" activeTab="3"/>
+    <workbookView windowWidth="28800" windowHeight="12420" tabRatio="833" firstSheet="10" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="修改履历" sheetId="108" r:id="rId1"/>
@@ -243,7 +243,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2273" uniqueCount="747">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2273" uniqueCount="746">
   <si>
     <t>版本号</t>
   </si>
@@ -2086,7 +2086,7 @@
     <t>UserBalance</t>
   </si>
   <si>
-    <t>double</t>
+    <t>decimal</t>
   </si>
   <si>
     <t>用户地址</t>
@@ -2285,9 +2285,6 @@
   </si>
   <si>
     <t>drug_price</t>
-  </si>
-  <si>
-    <t>decimal</t>
   </si>
   <si>
     <t>药品状态</t>
@@ -2613,15 +2610,8 @@
     <font>
       <sz val="11"/>
       <color indexed="8"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2639,8 +2629,15 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="8"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2903,18 +2900,18 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="128"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3086,7 +3083,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor indexed="31"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3098,19 +3095,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="31"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="47"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3164,12 +3161,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="46"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -3177,6 +3168,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="20"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="46"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3552,21 +3549,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="8"/>
       </left>
       <right style="thin">
@@ -3582,16 +3564,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="23"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color indexed="23"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color indexed="23"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color indexed="23"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3603,6 +3585,21 @@
       </top>
       <bottom style="double">
         <color indexed="17"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="23"/>
+      </left>
+      <right style="thin">
+        <color indexed="23"/>
+      </right>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="23"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3855,46 +3852,46 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -3941,7 +3938,7 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3960,7 +3957,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -3996,34 +3993,34 @@
     <xf numFmtId="0" fontId="35" fillId="23" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="23" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="25" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="24" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="38" fillId="12" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -4033,48 +4030,48 @@
     <xf numFmtId="0" fontId="41" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="42" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="38" fillId="12" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="12" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="38" fillId="12" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -4083,22 +4080,22 @@
     <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="38" fillId="12" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4107,54 +4104,56 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="34" fillId="12" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -4163,120 +4162,118 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="12" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="27" fillId="10" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="47" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4285,25 +4282,25 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="49" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4311,9 +4308,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4326,17 +4329,11 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -4345,14 +4342,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="51" fillId="14" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="15" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="52" fillId="23" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="51" fillId="14" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="51" fillId="15" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="54" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -4367,34 +4364,34 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="60" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4408,7 +4405,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -4418,51 +4415,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="62" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="51" fillId="15" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="51" fillId="15" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="51" fillId="14" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="14" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="51" fillId="15" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="14" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="15" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="51" fillId="15" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="14" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="14" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4514,85 +4514,79 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="34" fillId="12" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="64" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4614,7 +4608,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -4639,6 +4636,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
@@ -4646,43 +4644,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="65" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="14" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="51" fillId="15" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4755,12 +4752,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4783,9 +4780,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -4802,19 +4796,19 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="12" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4903,6 +4897,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
@@ -4919,7 +4916,7 @@
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0">
@@ -4986,12 +4983,12 @@
     <xf numFmtId="0" fontId="67" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5053,26 +5050,26 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="66" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
@@ -5085,73 +5082,73 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="70" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="12" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="71" fillId="60" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="12" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="71" fillId="60" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="12" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="12" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
@@ -5165,13 +5162,13 @@
     <xf numFmtId="0" fontId="74" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5207,92 +5204,92 @@
     <xf numFmtId="0" fontId="34" fillId="12" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="14" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="14" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="14" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="14" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="14" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="14" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="14" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="14" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="14" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="14" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="14" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="14" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="14" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="14" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="14" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="14" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="14" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="14" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="14" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="14" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="51" fillId="15" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="51" fillId="15" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="15" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="15" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="15" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="15" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="15" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="15" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="15" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="15" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="15" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="15" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="15" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="15" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="15" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="51" fillId="15" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="51" fillId="15" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="51" fillId="15" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="51" fillId="15" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="51" fillId="15" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="75" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="10" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="10" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="27" fillId="10" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="27" fillId="10" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
@@ -5750,68 +5747,68 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="20" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="124" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="121" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="0" xfId="124" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="124" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="124" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="10" borderId="1" xfId="124" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="0" xfId="121" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="121" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="121" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="10" borderId="1" xfId="121" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="124" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="121" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="124" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="121" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="124" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="124" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="121" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="121" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="1" xfId="124" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="1" xfId="121" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="1" xfId="124" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="1" xfId="124" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="1" xfId="121" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="1" xfId="121" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="124" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="121" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="578">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="常规 2 2 4" xfId="3"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="常规 2 7 5 2" xfId="5"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="输出 3" xfId="7"/>
-    <cellStyle name="20% - 强调文字颜色 1 2" xfId="8"/>
-    <cellStyle name="常规 3 4 3" xfId="9"/>
-    <cellStyle name="千位分隔[0]" xfId="10" builtinId="6"/>
-    <cellStyle name="常规 3 2 3 2" xfId="11"/>
-    <cellStyle name="常规 2 6 2 3 3 2" xfId="12"/>
-    <cellStyle name="20% - 着色 6 2" xfId="13"/>
-    <cellStyle name="着色 2 2" xfId="14"/>
+    <cellStyle name="20% - 强调文字颜色 1 2" xfId="2"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="3" builtinId="38"/>
+    <cellStyle name="输出 3" xfId="4"/>
+    <cellStyle name="输入" xfId="5" builtinId="20"/>
+    <cellStyle name="常规 2 7 5 2" xfId="6"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="常规 2 2 4" xfId="8"/>
+    <cellStyle name="着色 2 2" xfId="9"/>
+    <cellStyle name="20% - 着色 6 2" xfId="10"/>
+    <cellStyle name="常规 2 6 2 3 3 2" xfId="11"/>
+    <cellStyle name="常规 3 2 3 2" xfId="12"/>
+    <cellStyle name="常规 3 4 3" xfId="13"/>
+    <cellStyle name="千位分隔[0]" xfId="14" builtinId="6"/>
     <cellStyle name="40% - 强调文字颜色 3" xfId="15" builtinId="39"/>
-    <cellStyle name="计算 2" xfId="16"/>
-    <cellStyle name="汇总 3 5" xfId="17"/>
+    <cellStyle name="汇总 3 5" xfId="16"/>
+    <cellStyle name="计算 2" xfId="17"/>
     <cellStyle name="差" xfId="18" builtinId="27"/>
     <cellStyle name="千位分隔" xfId="19" builtinId="3"/>
     <cellStyle name="超链接" xfId="20" builtinId="8"/>
@@ -5849,10 +5846,10 @@
     <cellStyle name="输出" xfId="52" builtinId="21"/>
     <cellStyle name="计算" xfId="53" builtinId="22"/>
     <cellStyle name="计算 2 3 3" xfId="54"/>
-    <cellStyle name="40% - 强调文字颜色 4 2" xfId="55"/>
-    <cellStyle name="检查单元格" xfId="56" builtinId="23"/>
-    <cellStyle name="20% - 着色 1 2" xfId="57"/>
-    <cellStyle name="计算 3 2" xfId="58"/>
+    <cellStyle name="检查单元格" xfId="55" builtinId="23"/>
+    <cellStyle name="20% - 着色 1 2" xfId="56"/>
+    <cellStyle name="计算 3 2" xfId="57"/>
+    <cellStyle name="40% - 强调文字颜色 4 2" xfId="58"/>
     <cellStyle name="汇总 3 2 4" xfId="59"/>
     <cellStyle name="20% - 强调文字颜色 6" xfId="60" builtinId="50"/>
     <cellStyle name="汇总 2 4 3" xfId="61"/>
@@ -5862,16 +5859,16 @@
     <cellStyle name="链接单元格" xfId="65" builtinId="24"/>
     <cellStyle name="汇总" xfId="66" builtinId="25"/>
     <cellStyle name="好" xfId="67" builtinId="26"/>
-    <cellStyle name="常规 2 6 2 3 6" xfId="68"/>
-    <cellStyle name="常规 3 2 6" xfId="69"/>
-    <cellStyle name="适中" xfId="70" builtinId="28"/>
-    <cellStyle name="输出 3 3" xfId="71"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="72" builtinId="46"/>
-    <cellStyle name="常规 8 2" xfId="73"/>
-    <cellStyle name="汇总 3 2 3" xfId="74"/>
-    <cellStyle name="强调文字颜色 1" xfId="75" builtinId="29"/>
-    <cellStyle name="常规 2 2 2 4" xfId="76"/>
-    <cellStyle name="汇总 2 4 2" xfId="77"/>
+    <cellStyle name="适中" xfId="68" builtinId="28"/>
+    <cellStyle name="输出 3 3" xfId="69"/>
+    <cellStyle name="常规 2 6 2 3 6" xfId="70"/>
+    <cellStyle name="常规 3 2 6" xfId="71"/>
+    <cellStyle name="汇总 3 2 3" xfId="72"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="73" builtinId="46"/>
+    <cellStyle name="常规 8 2" xfId="74"/>
+    <cellStyle name="汇总 2 4 2" xfId="75"/>
+    <cellStyle name="强调文字颜色 1" xfId="76" builtinId="29"/>
+    <cellStyle name="常规 2 2 2 4" xfId="77"/>
     <cellStyle name="20% - 强调文字颜色 1" xfId="78" builtinId="30"/>
     <cellStyle name="链接单元格 3" xfId="79"/>
     <cellStyle name="汇总 3 3" xfId="80"/>
@@ -5884,9 +5881,9 @@
     <cellStyle name="40% - 强调文字颜色 2" xfId="87" builtinId="35"/>
     <cellStyle name="常规 3 4 3 2" xfId="88"/>
     <cellStyle name="强调文字颜色 3" xfId="89" builtinId="37"/>
-    <cellStyle name="常规 3 4 3 3" xfId="90"/>
-    <cellStyle name="强调文字颜色 4" xfId="91" builtinId="41"/>
-    <cellStyle name="常规 3 8 2" xfId="92"/>
+    <cellStyle name="强调文字颜色 4" xfId="90" builtinId="41"/>
+    <cellStyle name="常规 3 8 2" xfId="91"/>
+    <cellStyle name="常规 3 4 3 3" xfId="92"/>
     <cellStyle name="汇总 3 2 2" xfId="93"/>
     <cellStyle name="20% - 强调文字颜色 4" xfId="94" builtinId="42"/>
     <cellStyle name="汇总 3 6" xfId="95"/>
@@ -5899,70 +5896,70 @@
     <cellStyle name="60% - 强调文字颜色 5" xfId="102" builtinId="48"/>
     <cellStyle name="60% - 着色 6 2" xfId="103"/>
     <cellStyle name="强调文字颜色 6" xfId="104" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="105" builtinId="51"/>
-    <cellStyle name="着色 5 2" xfId="106"/>
-    <cellStyle name="常规 2 6 2 3 6 2" xfId="107"/>
-    <cellStyle name="适中 2" xfId="108"/>
-    <cellStyle name="输出 3 3 2" xfId="109"/>
+    <cellStyle name="适中 2" xfId="105"/>
+    <cellStyle name="输出 3 3 2" xfId="106"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="107" builtinId="51"/>
+    <cellStyle name="着色 5 2" xfId="108"/>
+    <cellStyle name="常规 2 6 2 3 6 2" xfId="109"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="110" builtinId="52"/>
-    <cellStyle name="40% - 强调文字颜色 1 2" xfId="111"/>
-    <cellStyle name="汇总 3 3 2" xfId="112"/>
-    <cellStyle name="40% - 强调文字颜色 2 2" xfId="113"/>
-    <cellStyle name="汇总 3 4 2" xfId="114"/>
-    <cellStyle name="20% - 着色 2 2" xfId="115"/>
-    <cellStyle name="40% - 强调文字颜色 5 2" xfId="116"/>
-    <cellStyle name="20% - 着色 3 2" xfId="117"/>
-    <cellStyle name="40% - 强调文字颜色 6 2" xfId="118"/>
-    <cellStyle name="20% - 强调文字颜色 2 2" xfId="119"/>
-    <cellStyle name="输出 2 2" xfId="120"/>
-    <cellStyle name="20% - 强调文字颜色 3 2" xfId="121"/>
-    <cellStyle name="常规 2 6 2 3 5" xfId="122"/>
-    <cellStyle name="常规 3 2 5" xfId="123"/>
-    <cellStyle name="標準_SA業務要件定義書" xfId="124"/>
-    <cellStyle name="输出 3 2" xfId="125"/>
-    <cellStyle name="20% - 强调文字颜色 4 2" xfId="126"/>
-    <cellStyle name="常规 3" xfId="127"/>
+    <cellStyle name="汇总 3 3 2" xfId="111"/>
+    <cellStyle name="40% - 强调文字颜色 1 2" xfId="112"/>
+    <cellStyle name="汇总 3 4 2" xfId="113"/>
+    <cellStyle name="40% - 强调文字颜色 2 2" xfId="114"/>
+    <cellStyle name="40% - 强调文字颜色 5 2" xfId="115"/>
+    <cellStyle name="20% - 着色 2 2" xfId="116"/>
+    <cellStyle name="40% - 强调文字颜色 6 2" xfId="117"/>
+    <cellStyle name="20% - 着色 3 2" xfId="118"/>
+    <cellStyle name="输出 2 2" xfId="119"/>
+    <cellStyle name="20% - 强调文字颜色 2 2" xfId="120"/>
+    <cellStyle name="標準_SA業務要件定義書" xfId="121"/>
+    <cellStyle name="输出 3 2" xfId="122"/>
+    <cellStyle name="20% - 强调文字颜色 3 2" xfId="123"/>
+    <cellStyle name="常规 2 6 2 3 5" xfId="124"/>
+    <cellStyle name="常规 3 2 5" xfId="125"/>
+    <cellStyle name="常规 3" xfId="126"/>
+    <cellStyle name="20% - 强调文字颜色 4 2" xfId="127"/>
     <cellStyle name="20% - 强调文字颜色 5 2" xfId="128"/>
     <cellStyle name="常规 3 4 5" xfId="129"/>
     <cellStyle name="20% - 强调文字颜色 6 2" xfId="130"/>
     <cellStyle name="常规 3 5 5" xfId="131"/>
-    <cellStyle name="20% - 着色 4 2" xfId="132"/>
-    <cellStyle name="常规 13" xfId="133"/>
+    <cellStyle name="常规 13" xfId="132"/>
+    <cellStyle name="20% - 着色 4 2" xfId="133"/>
     <cellStyle name="着色 1 2" xfId="134"/>
     <cellStyle name="20% - 着色 5 2" xfId="135"/>
     <cellStyle name="常规 2 6 2 3 2 2" xfId="136"/>
     <cellStyle name="常规 3 2 2 2" xfId="137"/>
-    <cellStyle name="40% - 强调文字颜色 3 2" xfId="138"/>
-    <cellStyle name="计算 2 2" xfId="139"/>
-    <cellStyle name="40% - 着色 1 2" xfId="140"/>
-    <cellStyle name="常规 2 7 2 2 2" xfId="141"/>
-    <cellStyle name="40% - 着色 2 2" xfId="142"/>
-    <cellStyle name="常规 2 7 2 3 2" xfId="143"/>
-    <cellStyle name="40% - 着色 3 2" xfId="144"/>
-    <cellStyle name="常规 2 7 2 4 2" xfId="145"/>
-    <cellStyle name="常规 4 10" xfId="146"/>
-    <cellStyle name="计算 2 7" xfId="147"/>
-    <cellStyle name="40% - 着色 4 2" xfId="148"/>
-    <cellStyle name="常规 2 7 2 5 2" xfId="149"/>
-    <cellStyle name="计算 3 7" xfId="150"/>
+    <cellStyle name="计算 2 2" xfId="138"/>
+    <cellStyle name="40% - 强调文字颜色 3 2" xfId="139"/>
+    <cellStyle name="常规 2 7 2 2 2" xfId="140"/>
+    <cellStyle name="40% - 着色 1 2" xfId="141"/>
+    <cellStyle name="常规 2 7 2 3 2" xfId="142"/>
+    <cellStyle name="40% - 着色 2 2" xfId="143"/>
+    <cellStyle name="常规 2 7 2 4 2" xfId="144"/>
+    <cellStyle name="常规 4 10" xfId="145"/>
+    <cellStyle name="计算 2 7" xfId="146"/>
+    <cellStyle name="40% - 着色 3 2" xfId="147"/>
+    <cellStyle name="常规 2 7 2 5 2" xfId="148"/>
+    <cellStyle name="计算 3 7" xfId="149"/>
+    <cellStyle name="40% - 着色 4 2" xfId="150"/>
     <cellStyle name="注释 3 3" xfId="151"/>
     <cellStyle name="40% - 着色 6 2" xfId="152"/>
-    <cellStyle name="常规 2 6 2 3 7" xfId="153"/>
-    <cellStyle name="常规 3 2 7" xfId="154"/>
-    <cellStyle name="60% - 强调文字颜色 1 2" xfId="155"/>
-    <cellStyle name="输出 3 4" xfId="156"/>
+    <cellStyle name="60% - 强调文字颜色 1 2" xfId="153"/>
+    <cellStyle name="输出 3 4" xfId="154"/>
+    <cellStyle name="常规 2 6 2 3 7" xfId="155"/>
+    <cellStyle name="常规 3 2 7" xfId="156"/>
     <cellStyle name="60% - 强调文字颜色 2 2" xfId="157"/>
     <cellStyle name="常规 5" xfId="158"/>
     <cellStyle name="常规 5 3 2 3" xfId="159"/>
-    <cellStyle name="常规 3 4 7" xfId="160"/>
-    <cellStyle name="60% - 强调文字颜色 3 2" xfId="161"/>
-    <cellStyle name="常规 5 3 3 3" xfId="162"/>
-    <cellStyle name="60% - 强调文字颜色 4 2" xfId="163"/>
-    <cellStyle name="常规 3 5 7" xfId="164"/>
-    <cellStyle name="60% - 强调文字颜色 5 2" xfId="165"/>
-    <cellStyle name="常规 3 6 7" xfId="166"/>
-    <cellStyle name="60% - 强调文字颜色 6 2" xfId="167"/>
-    <cellStyle name="Normal 8" xfId="168"/>
+    <cellStyle name="60% - 强调文字颜色 3 2" xfId="160"/>
+    <cellStyle name="常规 5 3 3 3" xfId="161"/>
+    <cellStyle name="常规 3 4 7" xfId="162"/>
+    <cellStyle name="常规 3 5 7" xfId="163"/>
+    <cellStyle name="60% - 强调文字颜色 4 2" xfId="164"/>
+    <cellStyle name="常规 3 6 7" xfId="165"/>
+    <cellStyle name="60% - 强调文字颜色 5 2" xfId="166"/>
+    <cellStyle name="Normal 8" xfId="167"/>
+    <cellStyle name="60% - 强调文字颜色 6 2" xfId="168"/>
     <cellStyle name="60% - 着色 1 2" xfId="169"/>
     <cellStyle name="常规 2 2 3 2" xfId="170"/>
     <cellStyle name="60% - 着色 2 2" xfId="171"/>
@@ -5984,16 +5981,16 @@
     <cellStyle name="Good 2" xfId="187"/>
     <cellStyle name="常规 10 2" xfId="188"/>
     <cellStyle name="Normal 10" xfId="189"/>
-    <cellStyle name="Normal 2" xfId="190"/>
-    <cellStyle name="常规 3 4 2 2" xfId="191"/>
+    <cellStyle name="常规 3 4 2 2" xfId="190"/>
+    <cellStyle name="Normal 2" xfId="191"/>
     <cellStyle name="Normal 2 2" xfId="192"/>
     <cellStyle name="常规 2 6 2 3 3 5" xfId="193"/>
     <cellStyle name="Normal 2 3" xfId="194"/>
     <cellStyle name="常规 2 6 2 3 3 6" xfId="195"/>
     <cellStyle name="Normal 2 4" xfId="196"/>
     <cellStyle name="Normal 2 5" xfId="197"/>
-    <cellStyle name="Normal 3" xfId="198"/>
-    <cellStyle name="常规 3 4 2 3" xfId="199"/>
+    <cellStyle name="常规 3 4 2 3" xfId="198"/>
+    <cellStyle name="Normal 3" xfId="199"/>
     <cellStyle name="Normal 4" xfId="200"/>
     <cellStyle name="Normal 4 2" xfId="201"/>
     <cellStyle name="Normal 4 3" xfId="202"/>
@@ -6014,16 +6011,16 @@
     <cellStyle name="标题 2 3" xfId="217"/>
     <cellStyle name="标题 3 2" xfId="218"/>
     <cellStyle name="标题 3 3" xfId="219"/>
-    <cellStyle name="标题 4 3" xfId="220"/>
-    <cellStyle name="汇总 2 2" xfId="221"/>
+    <cellStyle name="汇总 2 2" xfId="220"/>
+    <cellStyle name="标题 4 3" xfId="221"/>
     <cellStyle name="标题 5" xfId="222"/>
     <cellStyle name="标题 6" xfId="223"/>
-    <cellStyle name="標準 2" xfId="224"/>
-    <cellStyle name="常规 2 7 3 3 2" xfId="225"/>
-    <cellStyle name="超链接 5" xfId="226"/>
-    <cellStyle name="標準 3" xfId="227"/>
-    <cellStyle name="常规 2 7 3 3 3" xfId="228"/>
-    <cellStyle name="超链接 6" xfId="229"/>
+    <cellStyle name="超链接 5" xfId="224"/>
+    <cellStyle name="標準 2" xfId="225"/>
+    <cellStyle name="常规 2 7 3 3 2" xfId="226"/>
+    <cellStyle name="超链接 6" xfId="227"/>
+    <cellStyle name="標準 3" xfId="228"/>
+    <cellStyle name="常规 2 7 3 3 3" xfId="229"/>
     <cellStyle name="標準_00. 日付セット" xfId="230"/>
     <cellStyle name="差 2" xfId="231"/>
     <cellStyle name="差 3" xfId="232"/>
@@ -6049,9 +6046,9 @@
     <cellStyle name="常规 2 6 2 3 2 2 6" xfId="252"/>
     <cellStyle name="输入 3 3 2" xfId="253"/>
     <cellStyle name="常规 2 4 2" xfId="254"/>
-    <cellStyle name="输入 3 4" xfId="255"/>
-    <cellStyle name="常规 2 5" xfId="256"/>
-    <cellStyle name="强调文字颜色 4 2" xfId="257"/>
+    <cellStyle name="强调文字颜色 4 2" xfId="255"/>
+    <cellStyle name="输入 3 4" xfId="256"/>
+    <cellStyle name="常规 2 5" xfId="257"/>
     <cellStyle name="输入 3 5" xfId="258"/>
     <cellStyle name="常规 2 6" xfId="259"/>
     <cellStyle name="常规 2 6 2 3" xfId="260"/>
@@ -6088,12 +6085,12 @@
     <cellStyle name="常规 2 6 2 3 2 5 2" xfId="291"/>
     <cellStyle name="输出 2 7" xfId="292"/>
     <cellStyle name="常规 2 6 2 3 2 5 3" xfId="293"/>
-    <cellStyle name="常规 2 6 2 3 2 6" xfId="294"/>
-    <cellStyle name="常规 3 2 2 6" xfId="295"/>
-    <cellStyle name="警告文本 2" xfId="296"/>
-    <cellStyle name="常规 2 6 2 3 2 7" xfId="297"/>
-    <cellStyle name="常规 3 2 2 7" xfId="298"/>
-    <cellStyle name="警告文本 3" xfId="299"/>
+    <cellStyle name="警告文本 2" xfId="294"/>
+    <cellStyle name="常规 2 6 2 3 2 6" xfId="295"/>
+    <cellStyle name="常规 3 2 2 6" xfId="296"/>
+    <cellStyle name="警告文本 3" xfId="297"/>
+    <cellStyle name="常规 2 6 2 3 2 7" xfId="298"/>
+    <cellStyle name="常规 3 2 2 7" xfId="299"/>
     <cellStyle name="常规 2 6 2 3 2 8" xfId="300"/>
     <cellStyle name="常规 2 6 2 3 2 9" xfId="301"/>
     <cellStyle name="计算 2 4 2" xfId="302"/>
@@ -6114,27 +6111,27 @@
     <cellStyle name="常规 3 2 4 2" xfId="317"/>
     <cellStyle name="常规 2 6 2 3 4 3" xfId="318"/>
     <cellStyle name="常规 3 2 4 3" xfId="319"/>
-    <cellStyle name="着色 4 2" xfId="320"/>
-    <cellStyle name="常规 2 6 2 3 5 2" xfId="321"/>
-    <cellStyle name="常规 3 2 5 2" xfId="322"/>
-    <cellStyle name="输出 3 2 2" xfId="323"/>
-    <cellStyle name="常规 2 6 2 3 5 3" xfId="324"/>
-    <cellStyle name="常规 3 2 5 3" xfId="325"/>
-    <cellStyle name="输出 3 2 3" xfId="326"/>
-    <cellStyle name="常规 2 6 2 3 6 3" xfId="327"/>
-    <cellStyle name="适中 3" xfId="328"/>
-    <cellStyle name="输出 3 3 3" xfId="329"/>
-    <cellStyle name="着色 6 2" xfId="330"/>
-    <cellStyle name="常规 2 6 2 3 7 2" xfId="331"/>
-    <cellStyle name="输出 3 4 2" xfId="332"/>
-    <cellStyle name="常规 2 6 2 3 7 3" xfId="333"/>
-    <cellStyle name="输出 3 4 3" xfId="334"/>
-    <cellStyle name="常规 2 6 2 3 8" xfId="335"/>
-    <cellStyle name="常规 3 2 8" xfId="336"/>
-    <cellStyle name="输出 3 5" xfId="337"/>
-    <cellStyle name="常规 2 6 2 3 9" xfId="338"/>
-    <cellStyle name="常规 3 2 9" xfId="339"/>
-    <cellStyle name="输出 3 6" xfId="340"/>
+    <cellStyle name="输出 3 2 2" xfId="320"/>
+    <cellStyle name="着色 4 2" xfId="321"/>
+    <cellStyle name="常规 2 6 2 3 5 2" xfId="322"/>
+    <cellStyle name="常规 3 2 5 2" xfId="323"/>
+    <cellStyle name="输出 3 2 3" xfId="324"/>
+    <cellStyle name="常规 2 6 2 3 5 3" xfId="325"/>
+    <cellStyle name="常规 3 2 5 3" xfId="326"/>
+    <cellStyle name="适中 3" xfId="327"/>
+    <cellStyle name="输出 3 3 3" xfId="328"/>
+    <cellStyle name="常规 2 6 2 3 6 3" xfId="329"/>
+    <cellStyle name="输出 3 4 2" xfId="330"/>
+    <cellStyle name="着色 6 2" xfId="331"/>
+    <cellStyle name="常规 2 6 2 3 7 2" xfId="332"/>
+    <cellStyle name="输出 3 4 3" xfId="333"/>
+    <cellStyle name="常规 2 6 2 3 7 3" xfId="334"/>
+    <cellStyle name="输出 3 5" xfId="335"/>
+    <cellStyle name="常规 2 6 2 3 8" xfId="336"/>
+    <cellStyle name="常规 3 2 8" xfId="337"/>
+    <cellStyle name="输出 3 6" xfId="338"/>
+    <cellStyle name="常规 2 6 2 3 9" xfId="339"/>
+    <cellStyle name="常规 3 2 9" xfId="340"/>
     <cellStyle name="输入 3 6" xfId="341"/>
     <cellStyle name="常规 2 7" xfId="342"/>
     <cellStyle name="常规 2 7 10" xfId="343"/>
@@ -6160,8 +6157,8 @@
     <cellStyle name="常规 2 7 3 2 2" xfId="363"/>
     <cellStyle name="常规 2 7 3 2 3" xfId="364"/>
     <cellStyle name="常规 2 7 3 3" xfId="365"/>
-    <cellStyle name="常规 2 7 4" xfId="366"/>
-    <cellStyle name="强调文字颜色 2 2" xfId="367"/>
+    <cellStyle name="强调文字颜色 2 2" xfId="366"/>
+    <cellStyle name="常规 2 7 4" xfId="367"/>
     <cellStyle name="常规 2 7 5" xfId="368"/>
     <cellStyle name="常规 4 5 3 2" xfId="369"/>
     <cellStyle name="常规 2 7 5 3" xfId="370"/>
@@ -6173,10 +6170,10 @@
     <cellStyle name="常规 2 7 7" xfId="376"/>
     <cellStyle name="常规 2 7 7 2" xfId="377"/>
     <cellStyle name="常规 2 7 7 3" xfId="378"/>
-    <cellStyle name="常规 2 7 8" xfId="379"/>
-    <cellStyle name="计算 3 4 2" xfId="380"/>
-    <cellStyle name="常规 2 7 9" xfId="381"/>
-    <cellStyle name="计算 3 4 3" xfId="382"/>
+    <cellStyle name="计算 3 4 2" xfId="379"/>
+    <cellStyle name="常规 2 7 8" xfId="380"/>
+    <cellStyle name="计算 3 4 3" xfId="381"/>
+    <cellStyle name="常规 2 7 9" xfId="382"/>
     <cellStyle name="常规 23" xfId="383"/>
     <cellStyle name="常规 3 3" xfId="384"/>
     <cellStyle name="常规 3 3 2" xfId="385"/>
@@ -6184,17 +6181,17 @@
     <cellStyle name="常规 3 4" xfId="387"/>
     <cellStyle name="常规 3 4 2" xfId="388"/>
     <cellStyle name="常规 3 4 4" xfId="389"/>
-    <cellStyle name="常规 3 4 6" xfId="390"/>
-    <cellStyle name="常规 5 3 3 2" xfId="391"/>
+    <cellStyle name="常规 5 3 3 2" xfId="390"/>
+    <cellStyle name="常规 3 4 6" xfId="391"/>
     <cellStyle name="常规 3 4 8" xfId="392"/>
-    <cellStyle name="常规 3 5" xfId="393"/>
-    <cellStyle name="强调文字颜色 5 2" xfId="394"/>
+    <cellStyle name="强调文字颜色 5 2" xfId="393"/>
+    <cellStyle name="常规 3 5" xfId="394"/>
     <cellStyle name="常规 3 5 2" xfId="395"/>
-    <cellStyle name="常规 3 5 2 2" xfId="396"/>
-    <cellStyle name="常规 9 3" xfId="397"/>
-    <cellStyle name="常规 3 5 2 3" xfId="398"/>
-    <cellStyle name="常规 4 7 2" xfId="399"/>
-    <cellStyle name="常规 9 4" xfId="400"/>
+    <cellStyle name="常规 9 3" xfId="396"/>
+    <cellStyle name="常规 3 5 2 2" xfId="397"/>
+    <cellStyle name="常规 4 7 2" xfId="398"/>
+    <cellStyle name="常规 9 4" xfId="399"/>
+    <cellStyle name="常规 3 5 2 3" xfId="400"/>
     <cellStyle name="常规 3 5 3" xfId="401"/>
     <cellStyle name="常规 3 5 3 2" xfId="402"/>
     <cellStyle name="常规 3 5 3 3" xfId="403"/>
@@ -6204,10 +6201,10 @@
     <cellStyle name="常规 3 6 2" xfId="407"/>
     <cellStyle name="常规 3 6 2 2" xfId="408"/>
     <cellStyle name="常规 3 6 2 3" xfId="409"/>
-    <cellStyle name="常规 3 6 3 2" xfId="410"/>
-    <cellStyle name="超链接 2" xfId="411"/>
-    <cellStyle name="常规 3 6 3 3" xfId="412"/>
-    <cellStyle name="超链接 3" xfId="413"/>
+    <cellStyle name="超链接 2" xfId="410"/>
+    <cellStyle name="常规 3 6 3 2" xfId="411"/>
+    <cellStyle name="超链接 3" xfId="412"/>
+    <cellStyle name="常规 3 6 3 3" xfId="413"/>
     <cellStyle name="常规 3 6 4" xfId="414"/>
     <cellStyle name="常规 3 6 5" xfId="415"/>
     <cellStyle name="常规 3 6 6" xfId="416"/>
@@ -6240,8 +6237,8 @@
     <cellStyle name="常规 5 8" xfId="443"/>
     <cellStyle name="常规 4 3 7" xfId="444"/>
     <cellStyle name="常规 5 9" xfId="445"/>
-    <cellStyle name="常规 4 5" xfId="446"/>
-    <cellStyle name="强调文字颜色 6 2" xfId="447"/>
+    <cellStyle name="强调文字颜色 6 2" xfId="446"/>
+    <cellStyle name="常规 4 5" xfId="447"/>
     <cellStyle name="常规 4 5 2" xfId="448"/>
     <cellStyle name="常规 4 5 2 2" xfId="449"/>
     <cellStyle name="常规 4 5 2 3" xfId="450"/>
@@ -6269,8 +6266,8 @@
     <cellStyle name="常规 7 2" xfId="472"/>
     <cellStyle name="常规 8" xfId="473"/>
     <cellStyle name="常规 9" xfId="474"/>
-    <cellStyle name="常规 9 2" xfId="475"/>
-    <cellStyle name="汇总 3 3 3" xfId="476"/>
+    <cellStyle name="汇总 3 3 3" xfId="475"/>
+    <cellStyle name="常规 9 2" xfId="476"/>
     <cellStyle name="超链接 2 2" xfId="477"/>
     <cellStyle name="超链接 4" xfId="478"/>
     <cellStyle name="好 2" xfId="479"/>
@@ -6325,8 +6322,8 @@
     <cellStyle name="输出 2 6" xfId="528"/>
     <cellStyle name="输出 3 2 4" xfId="529"/>
     <cellStyle name="输出 3 7" xfId="530"/>
-    <cellStyle name="输入 2" xfId="531"/>
-    <cellStyle name="输入 3 7" xfId="532"/>
+    <cellStyle name="输入 3 7" xfId="531"/>
+    <cellStyle name="输入 2" xfId="532"/>
     <cellStyle name="输入 2 2" xfId="533"/>
     <cellStyle name="输入 2 2 2" xfId="534"/>
     <cellStyle name="输入 2 2 3" xfId="535"/>
@@ -6357,8 +6354,8 @@
     <cellStyle name="注释 2 4 2" xfId="560"/>
     <cellStyle name="注释 2 5" xfId="561"/>
     <cellStyle name="注释 2 6" xfId="562"/>
-    <cellStyle name="注释 2 7" xfId="563"/>
-    <cellStyle name="注释 3 4 2" xfId="564"/>
+    <cellStyle name="注释 3 4 2" xfId="563"/>
+    <cellStyle name="注释 2 7" xfId="564"/>
     <cellStyle name="注释 3" xfId="565"/>
     <cellStyle name="注释 3 2" xfId="566"/>
     <cellStyle name="注释 3 2 2" xfId="567"/>
@@ -9966,11 +9963,11 @@
     <mergeCell ref="V22:W23"/>
   </mergeCells>
   <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A11:D11">
+      <formula1>"同步,异步"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K11:M11">
       <formula1>"推式,拉式"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A11:D11">
-      <formula1>"同步,异步"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -9988,7 +9985,7 @@
   <dimension ref="A1:AE39"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="AE41" sqref="AE41"/>
+      <selection activeCell="I28" sqref="I28:J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -11029,7 +11026,7 @@
       <c r="G28" s="26"/>
       <c r="H28" s="27"/>
       <c r="I28" s="43" t="s">
-        <v>677</v>
+        <v>610</v>
       </c>
       <c r="J28" s="44"/>
       <c r="K28" s="8"/>
@@ -11061,12 +11058,12 @@
         <v>6</v>
       </c>
       <c r="B29" s="28" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C29" s="28"/>
       <c r="D29" s="28"/>
       <c r="E29" s="25" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="F29" s="26"/>
       <c r="G29" s="26"/>
@@ -11102,12 +11099,12 @@
         <v>7</v>
       </c>
       <c r="B30" s="28" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C30" s="28"/>
       <c r="D30" s="28"/>
       <c r="E30" s="25" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="F30" s="26"/>
       <c r="G30" s="26"/>
@@ -11143,12 +11140,12 @@
         <v>8</v>
       </c>
       <c r="B31" s="28" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C31" s="28"/>
       <c r="D31" s="28"/>
       <c r="E31" s="71" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F31" s="72"/>
       <c r="G31" s="72"/>
@@ -11186,12 +11183,12 @@
         <v>9</v>
       </c>
       <c r="B32" s="28" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C32" s="28"/>
       <c r="D32" s="28"/>
       <c r="E32" s="71" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="F32" s="72"/>
       <c r="G32" s="72"/>
@@ -11227,12 +11224,12 @@
         <v>10</v>
       </c>
       <c r="B33" s="28" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C33" s="28"/>
       <c r="D33" s="28"/>
       <c r="E33" s="25" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="F33" s="26"/>
       <c r="G33" s="26"/>
@@ -11268,12 +11265,12 @@
         <v>11</v>
       </c>
       <c r="B34" s="28" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C34" s="28"/>
       <c r="D34" s="28"/>
       <c r="E34" s="25" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="F34" s="26"/>
       <c r="G34" s="26"/>
@@ -11316,13 +11313,13 @@
       <c r="C35" s="28"/>
       <c r="D35" s="28"/>
       <c r="E35" s="25" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="F35" s="26"/>
       <c r="G35" s="26"/>
       <c r="H35" s="27"/>
       <c r="I35" s="43" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="J35" s="44"/>
       <c r="K35" s="8"/>
@@ -11357,13 +11354,13 @@
       <c r="C36" s="28"/>
       <c r="D36" s="28"/>
       <c r="E36" s="25" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="F36" s="26"/>
       <c r="G36" s="26"/>
       <c r="H36" s="27"/>
       <c r="I36" s="43" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="J36" s="44"/>
       <c r="K36" s="8"/>
@@ -11728,11 +11725,11 @@
     <mergeCell ref="V22:W23"/>
   </mergeCells>
   <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A11:D11">
+      <formula1>"同步,异步"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K11:M11">
       <formula1>"推式,拉式"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A11:D11">
-      <formula1>"同步,异步"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -12481,7 +12478,7 @@
     <row r="21" spans="1:31">
       <c r="A21" s="18"/>
       <c r="B21" s="19" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C21" s="20"/>
       <c r="D21" s="20"/>
@@ -12613,7 +12610,7 @@
       <c r="C24" s="28"/>
       <c r="D24" s="28"/>
       <c r="E24" s="25" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F24" s="26"/>
       <c r="G24" s="26"/>
@@ -12640,7 +12637,7 @@
       <c r="Z24" s="22"/>
       <c r="AA24" s="23"/>
       <c r="AB24" s="25" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="AC24" s="26"/>
       <c r="AD24" s="26"/>
@@ -12651,12 +12648,12 @@
         <v>2</v>
       </c>
       <c r="B25" s="28" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C25" s="28"/>
       <c r="D25" s="28"/>
       <c r="E25" s="25" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="F25" s="26"/>
       <c r="G25" s="26"/>
@@ -12694,18 +12691,18 @@
         <v>3</v>
       </c>
       <c r="B26" s="28" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="C26" s="28"/>
       <c r="D26" s="28"/>
       <c r="E26" s="25" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="F26" s="26"/>
       <c r="G26" s="26"/>
       <c r="H26" s="27"/>
       <c r="I26" s="43" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="J26" s="44"/>
       <c r="K26" s="8"/>
@@ -12735,12 +12732,12 @@
         <v>4</v>
       </c>
       <c r="B27" s="28" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C27" s="28"/>
       <c r="D27" s="28"/>
       <c r="E27" s="25" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="26"/>
@@ -12776,12 +12773,12 @@
         <v>5</v>
       </c>
       <c r="B28" s="28" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C28" s="28"/>
       <c r="D28" s="28"/>
       <c r="E28" s="25" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F28" s="26"/>
       <c r="G28" s="26"/>
@@ -12822,13 +12819,13 @@
       <c r="C29" s="28"/>
       <c r="D29" s="28"/>
       <c r="E29" s="25" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="F29" s="26"/>
       <c r="G29" s="26"/>
       <c r="H29" s="27"/>
       <c r="I29" s="43" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="J29" s="44"/>
       <c r="K29" s="8"/>
@@ -12863,13 +12860,13 @@
       <c r="C30" s="28"/>
       <c r="D30" s="28"/>
       <c r="E30" s="25" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="F30" s="26"/>
       <c r="G30" s="26"/>
       <c r="H30" s="27"/>
       <c r="I30" s="43" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="J30" s="44"/>
       <c r="K30" s="8"/>
@@ -13432,11 +13429,11 @@
     <mergeCell ref="V22:W23"/>
   </mergeCells>
   <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A11:D11">
+      <formula1>"同步,异步"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K11:M11">
       <formula1>"推式,拉式"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A11:D11">
-      <formula1>"同步,异步"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -14185,7 +14182,7 @@
     <row r="21" spans="1:31">
       <c r="A21" s="18"/>
       <c r="B21" s="19" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C21" s="20"/>
       <c r="D21" s="20"/>
@@ -14312,12 +14309,12 @@
         <v>1</v>
       </c>
       <c r="B24" s="66" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="C24" s="23"/>
       <c r="D24" s="24"/>
       <c r="E24" s="76" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F24" s="26"/>
       <c r="G24" s="26"/>
@@ -14344,7 +14341,7 @@
       <c r="Z24" s="22"/>
       <c r="AA24" s="23"/>
       <c r="AB24" s="25" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="AC24" s="26"/>
       <c r="AD24" s="26"/>
@@ -14355,12 +14352,12 @@
         <v>2</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C25" s="23"/>
       <c r="D25" s="24"/>
       <c r="E25" s="25" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="F25" s="26"/>
       <c r="G25" s="26"/>
@@ -14403,13 +14400,13 @@
       <c r="C26" s="28"/>
       <c r="D26" s="28"/>
       <c r="E26" s="25" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="F26" s="26"/>
       <c r="G26" s="26"/>
       <c r="H26" s="27"/>
       <c r="I26" s="43" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="J26" s="44"/>
       <c r="K26" s="74"/>
@@ -14444,13 +14441,13 @@
       <c r="C27" s="28"/>
       <c r="D27" s="28"/>
       <c r="E27" s="25" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="26"/>
       <c r="H27" s="27"/>
       <c r="I27" s="43" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="J27" s="44"/>
       <c r="K27" s="67"/>
@@ -15112,11 +15109,11 @@
     <mergeCell ref="V22:W23"/>
   </mergeCells>
   <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A11:D11">
+      <formula1>"同步,异步"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K11:M11">
       <formula1>"推式,拉式"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A11:D11">
-      <formula1>"同步,异步"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -15134,7 +15131,7 @@
   <dimension ref="A1:AE39"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="O24" sqref="O24:Q24"/>
+      <selection activeCell="I26" sqref="I26:J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -15865,7 +15862,7 @@
     <row r="21" spans="1:31">
       <c r="A21" s="18"/>
       <c r="B21" s="19" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C21" s="20"/>
       <c r="D21" s="20"/>
@@ -15997,7 +15994,7 @@
       <c r="C24" s="23"/>
       <c r="D24" s="24"/>
       <c r="E24" s="25" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="F24" s="26"/>
       <c r="G24" s="26"/>
@@ -16024,7 +16021,7 @@
       <c r="Z24" s="22"/>
       <c r="AA24" s="23"/>
       <c r="AB24" s="25" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="AC24" s="26"/>
       <c r="AD24" s="26"/>
@@ -16035,12 +16032,12 @@
         <v>2</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="C25" s="23"/>
       <c r="D25" s="24"/>
       <c r="E25" s="25" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="F25" s="26"/>
       <c r="G25" s="26"/>
@@ -16078,12 +16075,12 @@
         <v>2</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C26" s="23"/>
       <c r="D26" s="24"/>
       <c r="E26" s="25" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="F26" s="26"/>
       <c r="G26" s="26"/>
@@ -16119,18 +16116,18 @@
         <v>3</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C27" s="23"/>
       <c r="D27" s="24"/>
       <c r="E27" s="25" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="26"/>
       <c r="H27" s="27"/>
       <c r="I27" s="43" t="s">
-        <v>677</v>
+        <v>610</v>
       </c>
       <c r="J27" s="44"/>
       <c r="K27" s="67"/>
@@ -16162,18 +16159,18 @@
         <v>4</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="C28" s="23"/>
       <c r="D28" s="24"/>
       <c r="E28" s="25" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="F28" s="26"/>
       <c r="G28" s="26"/>
       <c r="H28" s="27"/>
       <c r="I28" s="43" t="s">
-        <v>677</v>
+        <v>610</v>
       </c>
       <c r="J28" s="44"/>
       <c r="K28" s="67"/>
@@ -16205,12 +16202,12 @@
         <v>6</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C29" s="23"/>
       <c r="D29" s="24"/>
       <c r="E29" s="25" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="F29" s="26"/>
       <c r="G29" s="26"/>
@@ -16246,12 +16243,12 @@
         <v>7</v>
       </c>
       <c r="B30" s="22" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="C30" s="23"/>
       <c r="D30" s="24"/>
       <c r="E30" s="25" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="F30" s="26"/>
       <c r="G30" s="26"/>
@@ -16287,12 +16284,12 @@
         <v>8</v>
       </c>
       <c r="B31" s="22" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C31" s="23"/>
       <c r="D31" s="24"/>
       <c r="E31" s="25" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="F31" s="26"/>
       <c r="G31" s="26"/>
@@ -16328,12 +16325,12 @@
         <v>9</v>
       </c>
       <c r="B32" s="22" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="C32" s="23"/>
       <c r="D32" s="24"/>
       <c r="E32" s="66" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="F32" s="23"/>
       <c r="G32" s="23"/>
@@ -16374,13 +16371,13 @@
       <c r="C33" s="28"/>
       <c r="D33" s="28"/>
       <c r="E33" s="25" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="F33" s="26"/>
       <c r="G33" s="26"/>
       <c r="H33" s="27"/>
       <c r="I33" s="43" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="J33" s="44"/>
       <c r="K33" s="67"/>
@@ -16415,13 +16412,13 @@
       <c r="C34" s="28"/>
       <c r="D34" s="28"/>
       <c r="E34" s="25" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="F34" s="26"/>
       <c r="G34" s="26"/>
       <c r="H34" s="27"/>
       <c r="I34" s="43" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="J34" s="44"/>
       <c r="K34" s="67"/>
@@ -16852,11 +16849,11 @@
     <mergeCell ref="V22:W23"/>
   </mergeCells>
   <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A11:D11">
+      <formula1>"同步,异步"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K11:M11">
       <formula1>"推式,拉式"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A11:D11">
-      <formula1>"同步,异步"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -16873,8 +16870,8 @@
   <sheetPr/>
   <dimension ref="A1:AE39"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="X33" sqref="X33:Y33"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="I36" sqref="I36:J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -17605,7 +17602,7 @@
     <row r="21" spans="1:31">
       <c r="A21" s="18"/>
       <c r="B21" s="19" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C21" s="20"/>
       <c r="D21" s="20"/>
@@ -17732,12 +17729,12 @@
         <v>1</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C24" s="23"/>
       <c r="D24" s="24"/>
       <c r="E24" s="25" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="F24" s="26"/>
       <c r="G24" s="26"/>
@@ -17764,7 +17761,7 @@
       <c r="Z24" s="22"/>
       <c r="AA24" s="23"/>
       <c r="AB24" s="25" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="AC24" s="26"/>
       <c r="AD24" s="26"/>
@@ -17775,12 +17772,12 @@
         <v>2</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="C25" s="23"/>
       <c r="D25" s="24"/>
       <c r="E25" s="25" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="F25" s="26"/>
       <c r="G25" s="26"/>
@@ -17818,12 +17815,12 @@
         <v>3</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C26" s="23"/>
       <c r="D26" s="24"/>
       <c r="E26" s="25" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="F26" s="26"/>
       <c r="G26" s="26"/>
@@ -17859,12 +17856,12 @@
         <v>4</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C27" s="23"/>
       <c r="D27" s="24"/>
       <c r="E27" s="25" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="26"/>
@@ -17900,12 +17897,12 @@
         <v>6</v>
       </c>
       <c r="B28" s="28" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C28" s="28"/>
       <c r="D28" s="28"/>
       <c r="E28" s="25" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="F28" s="26"/>
       <c r="G28" s="26"/>
@@ -17941,12 +17938,12 @@
         <v>7</v>
       </c>
       <c r="B29" s="28" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C29" s="28"/>
       <c r="D29" s="28"/>
       <c r="E29" s="25" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="F29" s="26"/>
       <c r="G29" s="26"/>
@@ -17984,18 +17981,18 @@
         <v>8</v>
       </c>
       <c r="B30" s="28" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C30" s="28"/>
       <c r="D30" s="28"/>
       <c r="E30" s="25" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="F30" s="26"/>
       <c r="G30" s="26"/>
       <c r="H30" s="27"/>
       <c r="I30" s="43" t="s">
-        <v>677</v>
+        <v>610</v>
       </c>
       <c r="J30" s="44"/>
       <c r="K30" s="8"/>
@@ -18027,12 +18024,12 @@
         <v>9</v>
       </c>
       <c r="B31" s="28" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C31" s="28"/>
       <c r="D31" s="28"/>
       <c r="E31" s="25" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="F31" s="26"/>
       <c r="G31" s="26"/>
@@ -18075,13 +18072,13 @@
       <c r="C32" s="28"/>
       <c r="D32" s="28"/>
       <c r="E32" s="25" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="F32" s="26"/>
       <c r="G32" s="26"/>
       <c r="H32" s="27"/>
       <c r="I32" s="43" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="J32" s="44"/>
       <c r="K32" s="8"/>
@@ -18116,13 +18113,13 @@
       <c r="C33" s="28"/>
       <c r="D33" s="28"/>
       <c r="E33" s="25" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="F33" s="26"/>
       <c r="G33" s="26"/>
       <c r="H33" s="27"/>
       <c r="I33" s="43" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="J33" s="44"/>
       <c r="K33" s="8"/>
@@ -18249,7 +18246,7 @@
       <c r="G36" s="26"/>
       <c r="H36" s="27"/>
       <c r="I36" s="43" t="s">
-        <v>677</v>
+        <v>610</v>
       </c>
       <c r="J36" s="44"/>
       <c r="K36" s="47"/>
@@ -18281,18 +18278,18 @@
         <v>15</v>
       </c>
       <c r="B37" s="22" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C37" s="23"/>
       <c r="D37" s="24"/>
       <c r="E37" s="25" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="F37" s="26"/>
       <c r="G37" s="26"/>
       <c r="H37" s="27"/>
       <c r="I37" s="43" t="s">
-        <v>677</v>
+        <v>610</v>
       </c>
       <c r="J37" s="44"/>
       <c r="K37" s="43"/>
@@ -18324,18 +18321,18 @@
         <v>16</v>
       </c>
       <c r="B38" s="22" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="C38" s="23"/>
       <c r="D38" s="24"/>
       <c r="E38" s="25" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="F38" s="26"/>
       <c r="G38" s="26"/>
       <c r="H38" s="27"/>
       <c r="I38" s="43" t="s">
-        <v>677</v>
+        <v>610</v>
       </c>
       <c r="J38" s="44"/>
       <c r="K38" s="43"/>
@@ -18638,11 +18635,11 @@
     <mergeCell ref="V22:W23"/>
   </mergeCells>
   <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A11:D11">
+      <formula1>"同步,异步"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K11:M11">
       <formula1>"推式,拉式"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A11:D11">
-      <formula1>"同步,异步"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -22483,11 +22480,11 @@
     </row>
   </sheetData>
   <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P38 P41:P54 P57:P58 P60:P61">
+      <formula1>"新增,取消"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="1、标准功能；2、标准上开发；3、全新开发" sqref="I79 I2:I58 I60:I62">
       <formula1>"Dblink,ESB,EAI,Webservice,Other"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P38 P41:P54 P57:P58 P60:P61">
-      <formula1>"新增,取消"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -24419,11 +24416,11 @@
     <mergeCell ref="V22:W23"/>
   </mergeCells>
   <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A11:D11">
+      <formula1>"同步,异步"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K11:M11">
       <formula1>"推式,拉式"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A11:D11">
-      <formula1>"同步,异步"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -24440,7 +24437,7 @@
   <sheetPr/>
   <dimension ref="A1:AE33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A7" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="I26" sqref="I26:J26"/>
     </sheetView>
   </sheetViews>
@@ -25802,11 +25799,11 @@
     <mergeCell ref="V22:W23"/>
   </mergeCells>
   <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A11:D11">
+      <formula1>"同步,异步"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K11:M11">
       <formula1>"推式,拉式"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A11:D11">
-      <formula1>"同步,异步"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -27212,11 +27209,11 @@
     <mergeCell ref="V22:W23"/>
   </mergeCells>
   <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A11:D11">
+      <formula1>"同步,异步"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K11:M11">
       <formula1>"推式,拉式"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A11:D11">
-      <formula1>"同步,异步"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -27234,7 +27231,7 @@
   <dimension ref="A1:AE39"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38:J38"/>
+      <selection activeCell="R39" sqref="R39:U39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -28700,7 +28697,9 @@
       <c r="J38" s="75"/>
       <c r="K38" s="67"/>
       <c r="L38" s="67"/>
-      <c r="M38" s="8"/>
+      <c r="M38" s="8">
+        <v>2</v>
+      </c>
       <c r="N38" s="8"/>
       <c r="O38" s="49"/>
       <c r="P38" s="49"/>
@@ -29004,11 +29003,11 @@
     <mergeCell ref="V22:W23"/>
   </mergeCells>
   <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A11:D11">
+      <formula1>"同步,异步"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K11:M11">
       <formula1>"推式,拉式"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A11:D11">
-      <formula1>"同步,异步"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -30684,11 +30683,11 @@
     <mergeCell ref="V22:W23"/>
   </mergeCells>
   <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A11:D11">
+      <formula1>"同步,异步"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K11:M11">
       <formula1>"推式,拉式"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A11:D11">
-      <formula1>"同步,异步"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -32346,11 +32345,11 @@
     <mergeCell ref="V22:W23"/>
   </mergeCells>
   <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A11:D11">
+      <formula1>"同步,异步"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K11:M11">
       <formula1>"推式,拉式"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A11:D11">
-      <formula1>"同步,异步"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -32368,7 +32367,7 @@
   <dimension ref="A1:AE39"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="O36" sqref="O36:Q36"/>
+      <selection activeCell="O35" sqref="O35:Q35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -33328,7 +33327,9 @@
       <c r="J26" s="75"/>
       <c r="K26" s="74"/>
       <c r="L26" s="75"/>
-      <c r="M26" s="43"/>
+      <c r="M26" s="43">
+        <v>2</v>
+      </c>
       <c r="N26" s="44"/>
       <c r="O26" s="45"/>
       <c r="P26" s="46"/>
@@ -34116,11 +34117,11 @@
     <mergeCell ref="V22:W23"/>
   </mergeCells>
   <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A11:D11">
+      <formula1>"同步,异步"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K11:M11">
       <formula1>"推式,拉式"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A11:D11">
-      <formula1>"同步,异步"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>

--- a/智慧医疗-数据结构.xlsx
+++ b/智慧医疗-数据结构.xlsx
@@ -268,7 +268,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2861" uniqueCount="783">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2861" uniqueCount="788">
   <si>
     <t>版本号</t>
   </si>
@@ -2153,6 +2153,9 @@
     <t>DoctorId</t>
   </si>
   <si>
+    <t>医生信息表</t>
+  </si>
+  <si>
     <t>医生姓名</t>
   </si>
   <si>
@@ -2207,6 +2210,9 @@
     <t>PhysicianID</t>
   </si>
   <si>
+    <t>医生职称表</t>
+  </si>
+  <si>
     <t>医生职称名称</t>
   </si>
   <si>
@@ -2222,6 +2228,9 @@
     <t>HospitalID</t>
   </si>
   <si>
+    <t>医院表</t>
+  </si>
+  <si>
     <t>医院名称</t>
   </si>
   <si>
@@ -2597,6 +2606,9 @@
     <t>秒杀活动id</t>
   </si>
   <si>
+    <t>秒杀活动表</t>
+  </si>
+  <si>
     <t>秒杀活动名称</t>
   </si>
   <si>
@@ -2619,6 +2631,9 @@
   </si>
   <si>
     <t>Commod_GoodsId</t>
+  </si>
+  <si>
+    <t>秒杀商品表</t>
   </si>
   <si>
     <t>SeckillId</t>
@@ -9167,7 +9182,7 @@
     <row r="21" spans="1:31">
       <c r="A21" s="18"/>
       <c r="B21" s="19" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="C21" s="20"/>
       <c r="D21" s="20"/>
@@ -9294,12 +9309,12 @@
         <v>1</v>
       </c>
       <c r="B24" s="52" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="C24" s="52"/>
       <c r="D24" s="52"/>
       <c r="E24" s="28" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="F24" s="29"/>
       <c r="G24" s="29"/>
@@ -9326,7 +9341,7 @@
       <c r="Z24" s="22"/>
       <c r="AA24" s="23"/>
       <c r="AB24" s="25" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="AC24" s="26"/>
       <c r="AD24" s="26"/>
@@ -9337,12 +9352,12 @@
         <v>2</v>
       </c>
       <c r="B25" s="52" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="C25" s="52"/>
       <c r="D25" s="52"/>
       <c r="E25" s="28" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="F25" s="29"/>
       <c r="G25" s="29"/>
@@ -10887,7 +10902,7 @@
     <row r="21" spans="1:31">
       <c r="A21" s="18"/>
       <c r="B21" s="19" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="C21" s="20"/>
       <c r="D21" s="20"/>
@@ -11046,7 +11061,7 @@
       <c r="Z24" s="22"/>
       <c r="AA24" s="23"/>
       <c r="AB24" s="25" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="AC24" s="26"/>
       <c r="AD24" s="26"/>
@@ -11057,12 +11072,12 @@
         <v>2</v>
       </c>
       <c r="B25" s="52" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="C25" s="52"/>
       <c r="D25" s="52"/>
       <c r="E25" s="28" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="F25" s="29"/>
       <c r="G25" s="29"/>
@@ -12549,7 +12564,7 @@
     <row r="21" spans="1:31">
       <c r="A21" s="18"/>
       <c r="B21" s="19" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="C21" s="20"/>
       <c r="D21" s="20"/>
@@ -12676,12 +12691,12 @@
         <v>1</v>
       </c>
       <c r="B24" s="52" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="C24" s="52"/>
       <c r="D24" s="52"/>
       <c r="E24" s="28" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="F24" s="29"/>
       <c r="G24" s="29"/>
@@ -12708,7 +12723,7 @@
       <c r="Z24" s="22"/>
       <c r="AA24" s="23"/>
       <c r="AB24" s="25" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="AC24" s="26"/>
       <c r="AD24" s="26"/>
@@ -12719,12 +12734,12 @@
         <v>2</v>
       </c>
       <c r="B25" s="52" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
       <c r="C25" s="52"/>
       <c r="D25" s="52"/>
       <c r="E25" s="28" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="F25" s="29"/>
       <c r="G25" s="29"/>
@@ -12762,12 +12777,12 @@
         <v>3</v>
       </c>
       <c r="B26" s="48" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="C26" s="49"/>
       <c r="D26" s="61"/>
       <c r="E26" s="28" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="F26" s="29"/>
       <c r="G26" s="29"/>
@@ -12805,12 +12820,12 @@
         <v>4</v>
       </c>
       <c r="B27" s="74" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="C27" s="75"/>
       <c r="D27" s="76"/>
       <c r="E27" s="28" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="F27" s="29"/>
       <c r="G27" s="29"/>
@@ -12846,12 +12861,12 @@
         <v>5</v>
       </c>
       <c r="B28" s="74" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="C28" s="75"/>
       <c r="D28" s="76"/>
       <c r="E28" s="28" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="F28" s="29"/>
       <c r="G28" s="29"/>
@@ -12887,12 +12902,12 @@
         <v>6</v>
       </c>
       <c r="B29" s="74" t="s">
-        <v>672</v>
+        <v>675</v>
       </c>
       <c r="C29" s="75"/>
       <c r="D29" s="76"/>
       <c r="E29" s="28" t="s">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="F29" s="29"/>
       <c r="G29" s="29"/>
@@ -12928,12 +12943,12 @@
         <v>7</v>
       </c>
       <c r="B30" s="74" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="C30" s="75"/>
       <c r="D30" s="76"/>
       <c r="E30" s="28" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="F30" s="29"/>
       <c r="G30" s="29"/>
@@ -12971,12 +12986,12 @@
         <v>8</v>
       </c>
       <c r="B31" s="74" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="C31" s="75"/>
       <c r="D31" s="76"/>
       <c r="E31" s="28" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="F31" s="29"/>
       <c r="G31" s="29"/>
@@ -13014,12 +13029,12 @@
         <v>9</v>
       </c>
       <c r="B32" s="74" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="C32" s="75"/>
       <c r="D32" s="76"/>
       <c r="E32" s="28" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="F32" s="29"/>
       <c r="G32" s="29"/>
@@ -13057,12 +13072,12 @@
         <v>10</v>
       </c>
       <c r="B33" s="74" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="C33" s="75"/>
       <c r="D33" s="76"/>
       <c r="E33" s="28" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="F33" s="29"/>
       <c r="G33" s="29"/>
@@ -13100,12 +13115,12 @@
         <v>11</v>
       </c>
       <c r="B34" s="74" t="s">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="C34" s="75"/>
       <c r="D34" s="76"/>
       <c r="E34" s="28" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="F34" s="29"/>
       <c r="G34" s="29"/>
@@ -13143,12 +13158,12 @@
         <v>12</v>
       </c>
       <c r="B35" s="74" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="C35" s="75"/>
       <c r="D35" s="76"/>
       <c r="E35" s="28" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="F35" s="29"/>
       <c r="G35" s="29"/>
@@ -14717,7 +14732,7 @@
     <row r="21" spans="1:31">
       <c r="A21" s="18"/>
       <c r="B21" s="19" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="C21" s="20"/>
       <c r="D21" s="20"/>
@@ -14844,12 +14859,12 @@
         <v>1</v>
       </c>
       <c r="B24" s="52" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="C24" s="52"/>
       <c r="D24" s="52"/>
       <c r="E24" s="28" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="F24" s="29"/>
       <c r="G24" s="29"/>
@@ -14876,7 +14891,7 @@
       <c r="Z24" s="22"/>
       <c r="AA24" s="23"/>
       <c r="AB24" s="25" t="s">
-        <v>687</v>
+        <v>690</v>
       </c>
       <c r="AC24" s="26"/>
       <c r="AD24" s="26"/>
@@ -14887,12 +14902,12 @@
         <v>2</v>
       </c>
       <c r="B25" s="52" t="s">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="C25" s="52"/>
       <c r="D25" s="52"/>
       <c r="E25" s="28" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="F25" s="29"/>
       <c r="G25" s="29"/>
@@ -14930,12 +14945,12 @@
         <v>3</v>
       </c>
       <c r="B26" s="48" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="C26" s="49"/>
       <c r="D26" s="61"/>
       <c r="E26" s="28" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
       <c r="F26" s="29"/>
       <c r="G26" s="29"/>
@@ -16445,7 +16460,7 @@
     <row r="21" spans="1:31">
       <c r="A21" s="18"/>
       <c r="B21" s="19" t="s">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="C21" s="20"/>
       <c r="D21" s="20"/>
@@ -16572,12 +16587,12 @@
         <v>1</v>
       </c>
       <c r="B24" s="31" t="s">
-        <v>693</v>
+        <v>696</v>
       </c>
       <c r="C24" s="31"/>
       <c r="D24" s="31"/>
       <c r="E24" s="25" t="s">
-        <v>694</v>
+        <v>697</v>
       </c>
       <c r="F24" s="26"/>
       <c r="G24" s="26"/>
@@ -16604,7 +16619,7 @@
       <c r="Z24" s="22"/>
       <c r="AA24" s="23"/>
       <c r="AB24" s="25" t="s">
-        <v>695</v>
+        <v>698</v>
       </c>
       <c r="AC24" s="26"/>
       <c r="AD24" s="26"/>
@@ -16615,12 +16630,12 @@
         <v>2</v>
       </c>
       <c r="B25" s="31" t="s">
-        <v>696</v>
+        <v>699</v>
       </c>
       <c r="C25" s="31"/>
       <c r="D25" s="31"/>
       <c r="E25" s="25" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
       <c r="F25" s="26"/>
       <c r="G25" s="26"/>
@@ -16658,12 +16673,12 @@
         <v>3</v>
       </c>
       <c r="B26" s="31" t="s">
-        <v>698</v>
+        <v>701</v>
       </c>
       <c r="C26" s="31"/>
       <c r="D26" s="31"/>
       <c r="E26" s="25" t="s">
-        <v>699</v>
+        <v>702</v>
       </c>
       <c r="F26" s="26"/>
       <c r="G26" s="26"/>
@@ -16701,12 +16716,12 @@
         <v>4</v>
       </c>
       <c r="B27" s="31" t="s">
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="C27" s="31"/>
       <c r="D27" s="31"/>
       <c r="E27" s="25" t="s">
-        <v>701</v>
+        <v>704</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="26"/>
@@ -16744,12 +16759,12 @@
         <v>5</v>
       </c>
       <c r="B28" s="31" t="s">
-        <v>702</v>
+        <v>705</v>
       </c>
       <c r="C28" s="31"/>
       <c r="D28" s="31"/>
       <c r="E28" s="25" t="s">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="F28" s="26"/>
       <c r="G28" s="26"/>
@@ -16787,12 +16802,12 @@
         <v>6</v>
       </c>
       <c r="B29" s="31" t="s">
-        <v>704</v>
+        <v>707</v>
       </c>
       <c r="C29" s="31"/>
       <c r="D29" s="31"/>
       <c r="E29" s="25" t="s">
-        <v>705</v>
+        <v>708</v>
       </c>
       <c r="F29" s="26"/>
       <c r="G29" s="26"/>
@@ -16828,12 +16843,12 @@
         <v>7</v>
       </c>
       <c r="B30" s="31" t="s">
-        <v>706</v>
+        <v>709</v>
       </c>
       <c r="C30" s="31"/>
       <c r="D30" s="31"/>
       <c r="E30" s="25" t="s">
-        <v>707</v>
+        <v>710</v>
       </c>
       <c r="F30" s="26"/>
       <c r="G30" s="26"/>
@@ -16869,12 +16884,12 @@
         <v>8</v>
       </c>
       <c r="B31" s="31" t="s">
-        <v>708</v>
+        <v>711</v>
       </c>
       <c r="C31" s="31"/>
       <c r="D31" s="31"/>
       <c r="E31" s="28" t="s">
-        <v>709</v>
+        <v>712</v>
       </c>
       <c r="F31" s="29"/>
       <c r="G31" s="29"/>
@@ -16912,12 +16927,12 @@
         <v>9</v>
       </c>
       <c r="B32" s="31" t="s">
-        <v>710</v>
+        <v>713</v>
       </c>
       <c r="C32" s="31"/>
       <c r="D32" s="31"/>
       <c r="E32" s="28" t="s">
-        <v>711</v>
+        <v>714</v>
       </c>
       <c r="F32" s="29"/>
       <c r="G32" s="29"/>
@@ -16953,12 +16968,12 @@
         <v>10</v>
       </c>
       <c r="B33" s="31" t="s">
-        <v>712</v>
+        <v>715</v>
       </c>
       <c r="C33" s="31"/>
       <c r="D33" s="31"/>
       <c r="E33" s="25" t="s">
-        <v>713</v>
+        <v>716</v>
       </c>
       <c r="F33" s="26"/>
       <c r="G33" s="26"/>
@@ -16994,12 +17009,12 @@
         <v>11</v>
       </c>
       <c r="B34" s="31" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
       <c r="C34" s="31"/>
       <c r="D34" s="31"/>
       <c r="E34" s="25" t="s">
-        <v>715</v>
+        <v>718</v>
       </c>
       <c r="F34" s="26"/>
       <c r="G34" s="26"/>
@@ -18473,7 +18488,7 @@
     <row r="21" spans="1:31">
       <c r="A21" s="18"/>
       <c r="B21" s="19" t="s">
-        <v>716</v>
+        <v>719</v>
       </c>
       <c r="C21" s="20"/>
       <c r="D21" s="20"/>
@@ -18600,12 +18615,12 @@
         <v>1</v>
       </c>
       <c r="B24" s="31" t="s">
-        <v>693</v>
+        <v>696</v>
       </c>
       <c r="C24" s="31"/>
       <c r="D24" s="31"/>
       <c r="E24" s="25" t="s">
-        <v>717</v>
+        <v>720</v>
       </c>
       <c r="F24" s="26"/>
       <c r="G24" s="26"/>
@@ -18632,7 +18647,7 @@
       <c r="Z24" s="22"/>
       <c r="AA24" s="23"/>
       <c r="AB24" s="25" t="s">
-        <v>718</v>
+        <v>721</v>
       </c>
       <c r="AC24" s="26"/>
       <c r="AD24" s="26"/>
@@ -18643,12 +18658,12 @@
         <v>2</v>
       </c>
       <c r="B25" s="31" t="s">
-        <v>719</v>
+        <v>722</v>
       </c>
       <c r="C25" s="31"/>
       <c r="D25" s="31"/>
       <c r="E25" s="25" t="s">
-        <v>720</v>
+        <v>723</v>
       </c>
       <c r="F25" s="26"/>
       <c r="G25" s="26"/>
@@ -18686,18 +18701,18 @@
         <v>3</v>
       </c>
       <c r="B26" s="31" t="s">
-        <v>721</v>
+        <v>724</v>
       </c>
       <c r="C26" s="31"/>
       <c r="D26" s="31"/>
       <c r="E26" s="25" t="s">
-        <v>722</v>
+        <v>725</v>
       </c>
       <c r="F26" s="26"/>
       <c r="G26" s="26"/>
       <c r="H26" s="27"/>
       <c r="I26" s="46" t="s">
-        <v>723</v>
+        <v>726</v>
       </c>
       <c r="J26" s="47"/>
       <c r="K26" s="8"/>
@@ -18727,12 +18742,12 @@
         <v>4</v>
       </c>
       <c r="B27" s="31" t="s">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="C27" s="31"/>
       <c r="D27" s="31"/>
       <c r="E27" s="25" t="s">
-        <v>725</v>
+        <v>728</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="26"/>
@@ -18768,12 +18783,12 @@
         <v>5</v>
       </c>
       <c r="B28" s="31" t="s">
-        <v>726</v>
+        <v>729</v>
       </c>
       <c r="C28" s="31"/>
       <c r="D28" s="31"/>
       <c r="E28" s="25" t="s">
-        <v>727</v>
+        <v>730</v>
       </c>
       <c r="F28" s="26"/>
       <c r="G28" s="26"/>
@@ -20217,7 +20232,7 @@
     <row r="21" spans="1:31">
       <c r="A21" s="18"/>
       <c r="B21" s="19" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="C21" s="20"/>
       <c r="D21" s="20"/>
@@ -20344,12 +20359,12 @@
         <v>1</v>
       </c>
       <c r="B24" s="71" t="s">
-        <v>729</v>
+        <v>732</v>
       </c>
       <c r="C24" s="23"/>
       <c r="D24" s="24"/>
       <c r="E24" s="73" t="s">
-        <v>730</v>
+        <v>733</v>
       </c>
       <c r="F24" s="26"/>
       <c r="G24" s="26"/>
@@ -20376,7 +20391,7 @@
       <c r="Z24" s="22"/>
       <c r="AA24" s="23"/>
       <c r="AB24" s="25" t="s">
-        <v>731</v>
+        <v>734</v>
       </c>
       <c r="AC24" s="26"/>
       <c r="AD24" s="26"/>
@@ -20387,12 +20402,12 @@
         <v>2</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
       <c r="C25" s="23"/>
       <c r="D25" s="24"/>
       <c r="E25" s="25" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="F25" s="26"/>
       <c r="G25" s="26"/>
@@ -21939,7 +21954,7 @@
     <row r="21" spans="1:31">
       <c r="A21" s="18"/>
       <c r="B21" s="19" t="s">
-        <v>734</v>
+        <v>737</v>
       </c>
       <c r="C21" s="20"/>
       <c r="D21" s="20"/>
@@ -22066,12 +22081,12 @@
         <v>1</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>693</v>
+        <v>696</v>
       </c>
       <c r="C24" s="23"/>
       <c r="D24" s="24"/>
       <c r="E24" s="25" t="s">
-        <v>735</v>
+        <v>738</v>
       </c>
       <c r="F24" s="26"/>
       <c r="G24" s="26"/>
@@ -22098,7 +22113,7 @@
       <c r="Z24" s="22"/>
       <c r="AA24" s="23"/>
       <c r="AB24" s="25" t="s">
-        <v>736</v>
+        <v>739</v>
       </c>
       <c r="AC24" s="26"/>
       <c r="AD24" s="26"/>
@@ -22109,12 +22124,12 @@
         <v>2</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>737</v>
+        <v>740</v>
       </c>
       <c r="C25" s="23"/>
       <c r="D25" s="24"/>
       <c r="E25" s="25" t="s">
-        <v>738</v>
+        <v>741</v>
       </c>
       <c r="F25" s="26"/>
       <c r="G25" s="26"/>
@@ -22152,12 +22167,12 @@
         <v>2</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>739</v>
+        <v>742</v>
       </c>
       <c r="C26" s="23"/>
       <c r="D26" s="24"/>
       <c r="E26" s="25" t="s">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="F26" s="26"/>
       <c r="G26" s="26"/>
@@ -22193,12 +22208,12 @@
         <v>3</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>741</v>
+        <v>744</v>
       </c>
       <c r="C27" s="23"/>
       <c r="D27" s="24"/>
       <c r="E27" s="25" t="s">
-        <v>742</v>
+        <v>745</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="26"/>
@@ -22236,12 +22251,12 @@
         <v>4</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>743</v>
+        <v>746</v>
       </c>
       <c r="C28" s="23"/>
       <c r="D28" s="24"/>
       <c r="E28" s="25" t="s">
-        <v>744</v>
+        <v>747</v>
       </c>
       <c r="F28" s="26"/>
       <c r="G28" s="26"/>
@@ -22279,12 +22294,12 @@
         <v>6</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>745</v>
+        <v>748</v>
       </c>
       <c r="C29" s="23"/>
       <c r="D29" s="24"/>
       <c r="E29" s="25" t="s">
-        <v>746</v>
+        <v>749</v>
       </c>
       <c r="F29" s="26"/>
       <c r="G29" s="26"/>
@@ -22320,12 +22335,12 @@
         <v>7</v>
       </c>
       <c r="B30" s="22" t="s">
-        <v>747</v>
+        <v>750</v>
       </c>
       <c r="C30" s="23"/>
       <c r="D30" s="24"/>
       <c r="E30" s="25" t="s">
-        <v>748</v>
+        <v>751</v>
       </c>
       <c r="F30" s="26"/>
       <c r="G30" s="26"/>
@@ -22361,12 +22376,12 @@
         <v>8</v>
       </c>
       <c r="B31" s="22" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="C31" s="23"/>
       <c r="D31" s="24"/>
       <c r="E31" s="25" t="s">
-        <v>750</v>
+        <v>753</v>
       </c>
       <c r="F31" s="26"/>
       <c r="G31" s="26"/>
@@ -22402,12 +22417,12 @@
         <v>9</v>
       </c>
       <c r="B32" s="22" t="s">
-        <v>751</v>
+        <v>754</v>
       </c>
       <c r="C32" s="23"/>
       <c r="D32" s="24"/>
       <c r="E32" s="71" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="F32" s="23"/>
       <c r="G32" s="23"/>
@@ -23719,7 +23734,7 @@
     <row r="21" spans="1:31">
       <c r="A21" s="18"/>
       <c r="B21" s="19" t="s">
-        <v>753</v>
+        <v>756</v>
       </c>
       <c r="C21" s="20"/>
       <c r="D21" s="20"/>
@@ -23846,12 +23861,12 @@
         <v>1</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>754</v>
+        <v>757</v>
       </c>
       <c r="C24" s="23"/>
       <c r="D24" s="24"/>
       <c r="E24" s="25" t="s">
-        <v>755</v>
+        <v>758</v>
       </c>
       <c r="F24" s="26"/>
       <c r="G24" s="26"/>
@@ -23878,7 +23893,7 @@
       <c r="Z24" s="22"/>
       <c r="AA24" s="23"/>
       <c r="AB24" s="25" t="s">
-        <v>756</v>
+        <v>759</v>
       </c>
       <c r="AC24" s="26"/>
       <c r="AD24" s="26"/>
@@ -23889,12 +23904,12 @@
         <v>2</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="C25" s="23"/>
       <c r="D25" s="24"/>
       <c r="E25" s="25" t="s">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="F25" s="26"/>
       <c r="G25" s="26"/>
@@ -23932,12 +23947,12 @@
         <v>3</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>759</v>
+        <v>762</v>
       </c>
       <c r="C26" s="23"/>
       <c r="D26" s="24"/>
       <c r="E26" s="25" t="s">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="F26" s="26"/>
       <c r="G26" s="26"/>
@@ -23973,12 +23988,12 @@
         <v>4</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="C27" s="23"/>
       <c r="D27" s="24"/>
       <c r="E27" s="25" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="26"/>
@@ -24014,12 +24029,12 @@
         <v>6</v>
       </c>
       <c r="B28" s="31" t="s">
-        <v>762</v>
+        <v>765</v>
       </c>
       <c r="C28" s="31"/>
       <c r="D28" s="31"/>
       <c r="E28" s="25" t="s">
-        <v>763</v>
+        <v>766</v>
       </c>
       <c r="F28" s="26"/>
       <c r="G28" s="26"/>
@@ -24055,12 +24070,12 @@
         <v>7</v>
       </c>
       <c r="B29" s="31" t="s">
-        <v>764</v>
+        <v>767</v>
       </c>
       <c r="C29" s="31"/>
       <c r="D29" s="31"/>
       <c r="E29" s="25" t="s">
-        <v>765</v>
+        <v>768</v>
       </c>
       <c r="F29" s="26"/>
       <c r="G29" s="26"/>
@@ -24098,12 +24113,12 @@
         <v>8</v>
       </c>
       <c r="B30" s="31" t="s">
-        <v>766</v>
+        <v>769</v>
       </c>
       <c r="C30" s="31"/>
       <c r="D30" s="31"/>
       <c r="E30" s="25" t="s">
-        <v>767</v>
+        <v>770</v>
       </c>
       <c r="F30" s="26"/>
       <c r="G30" s="26"/>
@@ -24141,12 +24156,12 @@
         <v>9</v>
       </c>
       <c r="B31" s="31" t="s">
-        <v>768</v>
+        <v>771</v>
       </c>
       <c r="C31" s="31"/>
       <c r="D31" s="31"/>
       <c r="E31" s="25" t="s">
-        <v>769</v>
+        <v>772</v>
       </c>
       <c r="F31" s="26"/>
       <c r="G31" s="26"/>
@@ -24184,12 +24199,12 @@
         <v>10</v>
       </c>
       <c r="B32" s="31" t="s">
-        <v>698</v>
+        <v>701</v>
       </c>
       <c r="C32" s="31"/>
       <c r="D32" s="31"/>
       <c r="E32" s="25" t="s">
-        <v>699</v>
+        <v>702</v>
       </c>
       <c r="F32" s="26"/>
       <c r="G32" s="26"/>
@@ -24227,12 +24242,12 @@
         <v>11</v>
       </c>
       <c r="B33" s="31" t="s">
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="C33" s="31"/>
       <c r="D33" s="31"/>
       <c r="E33" s="25" t="s">
-        <v>701</v>
+        <v>704</v>
       </c>
       <c r="F33" s="26"/>
       <c r="G33" s="26"/>
@@ -24270,12 +24285,12 @@
         <v>12</v>
       </c>
       <c r="B34" s="31" t="s">
-        <v>702</v>
+        <v>705</v>
       </c>
       <c r="C34" s="31"/>
       <c r="D34" s="31"/>
       <c r="E34" s="25" t="s">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="F34" s="26"/>
       <c r="G34" s="26"/>
@@ -24313,12 +24328,12 @@
         <v>13</v>
       </c>
       <c r="B35" s="22" t="s">
-        <v>741</v>
+        <v>744</v>
       </c>
       <c r="C35" s="23"/>
       <c r="D35" s="24"/>
       <c r="E35" s="25" t="s">
-        <v>742</v>
+        <v>745</v>
       </c>
       <c r="F35" s="26"/>
       <c r="G35" s="26"/>
@@ -24356,12 +24371,12 @@
         <v>14</v>
       </c>
       <c r="B36" s="22" t="s">
-        <v>743</v>
+        <v>746</v>
       </c>
       <c r="C36" s="23"/>
       <c r="D36" s="24"/>
       <c r="E36" s="25" t="s">
-        <v>744</v>
+        <v>747</v>
       </c>
       <c r="F36" s="26"/>
       <c r="G36" s="26"/>
@@ -25080,7 +25095,7 @@
   <dimension ref="A1:AE39"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30:L36"/>
+      <selection activeCell="AB24" sqref="AB24:AE24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -25811,7 +25826,7 @@
     <row r="21" spans="1:31">
       <c r="A21" s="18"/>
       <c r="B21" s="19" t="s">
-        <v>770</v>
+        <v>773</v>
       </c>
       <c r="C21" s="20"/>
       <c r="D21" s="20"/>
@@ -25938,12 +25953,12 @@
         <v>1</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>771</v>
+        <v>774</v>
       </c>
       <c r="C24" s="23"/>
       <c r="D24" s="24"/>
       <c r="E24" s="25" t="s">
-        <v>755</v>
+        <v>758</v>
       </c>
       <c r="F24" s="26"/>
       <c r="G24" s="26"/>
@@ -25970,7 +25985,7 @@
       <c r="Z24" s="22"/>
       <c r="AA24" s="23"/>
       <c r="AB24" s="25" t="s">
-        <v>756</v>
+        <v>775</v>
       </c>
       <c r="AC24" s="26"/>
       <c r="AD24" s="26"/>
@@ -25981,12 +25996,12 @@
         <v>2</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>772</v>
+        <v>776</v>
       </c>
       <c r="C25" s="23"/>
       <c r="D25" s="24"/>
       <c r="E25" s="25" t="s">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="F25" s="26"/>
       <c r="G25" s="26"/>
@@ -26024,12 +26039,12 @@
         <v>3</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>773</v>
+        <v>777</v>
       </c>
       <c r="C26" s="23"/>
       <c r="D26" s="24"/>
       <c r="E26" s="25" t="s">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="F26" s="26"/>
       <c r="G26" s="26"/>
@@ -26065,12 +26080,12 @@
         <v>4</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>774</v>
+        <v>778</v>
       </c>
       <c r="C27" s="23"/>
       <c r="D27" s="24"/>
       <c r="E27" s="25" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="26"/>
@@ -26106,12 +26121,12 @@
         <v>6</v>
       </c>
       <c r="B28" s="31" t="s">
-        <v>775</v>
+        <v>779</v>
       </c>
       <c r="C28" s="31"/>
       <c r="D28" s="31"/>
       <c r="E28" s="25" t="s">
-        <v>763</v>
+        <v>766</v>
       </c>
       <c r="F28" s="26"/>
       <c r="G28" s="26"/>
@@ -26147,12 +26162,12 @@
         <v>7</v>
       </c>
       <c r="B29" s="31" t="s">
-        <v>776</v>
+        <v>780</v>
       </c>
       <c r="C29" s="31"/>
       <c r="D29" s="31"/>
       <c r="E29" s="25" t="s">
-        <v>765</v>
+        <v>768</v>
       </c>
       <c r="F29" s="26"/>
       <c r="G29" s="26"/>
@@ -30751,7 +30766,7 @@
   <dimension ref="A1:AE39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="O42" sqref="O42"/>
+      <selection activeCell="X31" sqref="X31:Y31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -31482,7 +31497,7 @@
     <row r="21" spans="1:31">
       <c r="A21" s="18"/>
       <c r="B21" s="19" t="s">
-        <v>777</v>
+        <v>781</v>
       </c>
       <c r="C21" s="20"/>
       <c r="D21" s="20"/>
@@ -31609,12 +31624,12 @@
         <v>1</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>778</v>
+        <v>782</v>
       </c>
       <c r="C24" s="23"/>
       <c r="D24" s="24"/>
       <c r="E24" s="25" t="s">
-        <v>779</v>
+        <v>783</v>
       </c>
       <c r="F24" s="26"/>
       <c r="G24" s="26"/>
@@ -31641,7 +31656,7 @@
       <c r="Z24" s="22"/>
       <c r="AA24" s="23"/>
       <c r="AB24" s="25" t="s">
-        <v>756</v>
+        <v>784</v>
       </c>
       <c r="AC24" s="26"/>
       <c r="AD24" s="26"/>
@@ -31652,12 +31667,12 @@
         <v>2</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>771</v>
+        <v>774</v>
       </c>
       <c r="C25" s="23"/>
       <c r="D25" s="24"/>
       <c r="E25" s="25" t="s">
-        <v>780</v>
+        <v>785</v>
       </c>
       <c r="F25" s="26"/>
       <c r="G25" s="26"/>
@@ -31693,12 +31708,12 @@
         <v>3</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="C26" s="23"/>
       <c r="D26" s="24"/>
       <c r="E26" s="28" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="F26" s="29"/>
       <c r="G26" s="29"/>
@@ -31734,12 +31749,12 @@
         <v>4</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>781</v>
+        <v>786</v>
       </c>
       <c r="C27" s="23"/>
       <c r="D27" s="24"/>
       <c r="E27" s="25" t="s">
-        <v>782</v>
+        <v>787</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="26"/>
@@ -31777,12 +31792,12 @@
         <v>6</v>
       </c>
       <c r="B28" s="31" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
       <c r="C28" s="31"/>
       <c r="D28" s="31"/>
       <c r="E28" s="28" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="F28" s="29"/>
       <c r="G28" s="29"/>
@@ -31820,12 +31835,12 @@
         <v>7</v>
       </c>
       <c r="B29" s="31" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="C29" s="31"/>
       <c r="D29" s="31"/>
       <c r="E29" s="28" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="F29" s="29"/>
       <c r="G29" s="29"/>
@@ -31863,12 +31878,12 @@
         <v>8</v>
       </c>
       <c r="B30" s="31" t="s">
-        <v>672</v>
+        <v>675</v>
       </c>
       <c r="C30" s="31"/>
       <c r="D30" s="31"/>
       <c r="E30" s="28" t="s">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="F30" s="29"/>
       <c r="G30" s="29"/>
@@ -31904,12 +31919,12 @@
         <v>9</v>
       </c>
       <c r="B31" s="31" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="C31" s="31"/>
       <c r="D31" s="31"/>
       <c r="E31" s="28" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="F31" s="29"/>
       <c r="G31" s="29"/>
@@ -40349,7 +40364,7 @@
   <dimension ref="A1:AE39"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34:L39"/>
+      <selection activeCell="X32" sqref="X32:Y32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -41239,7 +41254,7 @@
       <c r="Z24" s="22"/>
       <c r="AA24" s="23"/>
       <c r="AB24" s="25" t="s">
-        <v>593</v>
+        <v>624</v>
       </c>
       <c r="AC24" s="26"/>
       <c r="AD24" s="26"/>
@@ -41250,12 +41265,12 @@
         <v>2</v>
       </c>
       <c r="B25" s="77" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="C25" s="77"/>
       <c r="D25" s="77"/>
       <c r="E25" s="28" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="F25" s="29"/>
       <c r="G25" s="29"/>
@@ -41293,12 +41308,12 @@
         <v>3</v>
       </c>
       <c r="B26" s="77" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="C26" s="77"/>
       <c r="D26" s="77"/>
       <c r="E26" s="28" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="F26" s="29"/>
       <c r="G26" s="29"/>
@@ -41334,12 +41349,12 @@
         <v>4</v>
       </c>
       <c r="B27" s="77" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="C27" s="77"/>
       <c r="D27" s="77"/>
       <c r="E27" s="28" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="F27" s="29"/>
       <c r="G27" s="29"/>
@@ -41375,7 +41390,7 @@
         <v>5</v>
       </c>
       <c r="B28" s="77" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="C28" s="77"/>
       <c r="D28" s="77"/>
@@ -41418,12 +41433,12 @@
         <v>6</v>
       </c>
       <c r="B29" s="77" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C29" s="77"/>
       <c r="D29" s="77"/>
       <c r="E29" s="28" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="F29" s="29"/>
       <c r="G29" s="29"/>
@@ -41461,12 +41476,12 @@
         <v>7</v>
       </c>
       <c r="B30" s="77" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="C30" s="77"/>
       <c r="D30" s="77"/>
       <c r="E30" s="28" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="F30" s="29"/>
       <c r="G30" s="29"/>
@@ -41504,12 +41519,12 @@
         <v>8</v>
       </c>
       <c r="B31" s="77" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="C31" s="77"/>
       <c r="D31" s="77"/>
       <c r="E31" s="28" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="F31" s="29"/>
       <c r="G31" s="29"/>
@@ -41547,12 +41562,12 @@
         <v>9</v>
       </c>
       <c r="B32" s="77" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="C32" s="77"/>
       <c r="D32" s="77"/>
       <c r="E32" s="28" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="F32" s="29"/>
       <c r="G32" s="29"/>
@@ -42135,7 +42150,7 @@
   <dimension ref="A1:AE39"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26:H26"/>
+      <selection activeCell="AB24" sqref="AB24:AE24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -42866,7 +42881,7 @@
     <row r="21" spans="1:31">
       <c r="A21" s="18"/>
       <c r="B21" s="19" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="C21" s="20"/>
       <c r="D21" s="20"/>
@@ -42993,12 +43008,12 @@
         <v>1</v>
       </c>
       <c r="B24" s="77" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="C24" s="77"/>
       <c r="D24" s="77"/>
       <c r="E24" s="28" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="F24" s="29"/>
       <c r="G24" s="29"/>
@@ -43025,7 +43040,7 @@
       <c r="Z24" s="22"/>
       <c r="AA24" s="23"/>
       <c r="AB24" s="25" t="s">
-        <v>593</v>
+        <v>643</v>
       </c>
       <c r="AC24" s="26"/>
       <c r="AD24" s="26"/>
@@ -43036,12 +43051,12 @@
         <v>2</v>
       </c>
       <c r="B25" s="77" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="C25" s="77"/>
       <c r="D25" s="77"/>
       <c r="E25" s="28" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="F25" s="29"/>
       <c r="G25" s="29"/>
@@ -43827,7 +43842,7 @@
   <dimension ref="A1:AE39"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29:L34"/>
+      <selection activeCell="AB24" sqref="AB24:AE24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -44558,7 +44573,7 @@
     <row r="21" spans="1:31">
       <c r="A21" s="18"/>
       <c r="B21" s="19" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="C21" s="20"/>
       <c r="D21" s="20"/>
@@ -44685,12 +44700,12 @@
         <v>1</v>
       </c>
       <c r="B24" s="77" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="C24" s="77"/>
       <c r="D24" s="77"/>
       <c r="E24" s="28" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="F24" s="29"/>
       <c r="G24" s="29"/>
@@ -44717,7 +44732,7 @@
       <c r="Z24" s="22"/>
       <c r="AA24" s="23"/>
       <c r="AB24" s="25" t="s">
-        <v>593</v>
+        <v>649</v>
       </c>
       <c r="AC24" s="26"/>
       <c r="AD24" s="26"/>
@@ -44728,12 +44743,12 @@
         <v>2</v>
       </c>
       <c r="B25" s="77" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="C25" s="77"/>
       <c r="D25" s="77"/>
       <c r="E25" s="28" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="F25" s="29"/>
       <c r="G25" s="29"/>
@@ -44771,12 +44786,12 @@
         <v>3</v>
       </c>
       <c r="B26" s="77" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="C26" s="77"/>
       <c r="D26" s="77"/>
       <c r="E26" s="28" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="F26" s="29"/>
       <c r="G26" s="29"/>
@@ -44814,12 +44829,12 @@
         <v>4</v>
       </c>
       <c r="B27" s="77" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="C27" s="77"/>
       <c r="D27" s="77"/>
       <c r="E27" s="28" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="F27" s="29"/>
       <c r="G27" s="29"/>

--- a/智慧医疗-数据结构.xlsx
+++ b/智慧医疗-数据结构.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12420" tabRatio="833" firstSheet="15" activeTab="19"/>
+    <workbookView windowWidth="28800" windowHeight="12420" tabRatio="833" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="修改履历" sheetId="108" r:id="rId1"/>
@@ -268,7 +268,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2861" uniqueCount="788">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2861" uniqueCount="789">
   <si>
     <t>版本号</t>
   </si>
@@ -1889,7 +1889,7 @@
     <t>输出物理表名(与“对应集成接口表名”一致)</t>
   </si>
   <si>
-    <t>tb_sys_live(直播)</t>
+    <t>tb_sys_live</t>
   </si>
   <si>
     <t>字段名称（中文)</t>
@@ -1913,106 +1913,109 @@
     <t>唯一id</t>
   </si>
   <si>
+    <t>liveid</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>直播表</t>
+  </si>
+  <si>
+    <t>直播间id</t>
+  </si>
+  <si>
+    <t>room_id</t>
+  </si>
+  <si>
+    <t>varchar</t>
+  </si>
+  <si>
+    <t>直播标题</t>
+  </si>
+  <si>
+    <t>live_title</t>
+  </si>
+  <si>
+    <t>直播开始时间</t>
+  </si>
+  <si>
+    <t>live_statrtime</t>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>直播结束时间</t>
+  </si>
+  <si>
+    <t>live_endtime</t>
+  </si>
+  <si>
+    <t>直播展示图片</t>
+  </si>
+  <si>
+    <t>live_img</t>
+  </si>
+  <si>
+    <t>直播状态</t>
+  </si>
+  <si>
+    <t>live_state</t>
+  </si>
+  <si>
+    <t>0:开启直播，1：关闭直播：2：账号违规</t>
+  </si>
+  <si>
+    <t>直播用户id</t>
+  </si>
+  <si>
+    <t>UserId</t>
+  </si>
+  <si>
+    <t>创建时间</t>
+  </si>
+  <si>
+    <t>CreationTime</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>修改时间</t>
+  </si>
+  <si>
+    <t>ModificationTime</t>
+  </si>
+  <si>
+    <t>删除时间</t>
+  </si>
+  <si>
+    <t>Deletetime</t>
+  </si>
+  <si>
+    <t>创建人</t>
+  </si>
+  <si>
+    <t>CreationPerson</t>
+  </si>
+  <si>
+    <t>修改人</t>
+  </si>
+  <si>
+    <t>ModificationPerson</t>
+  </si>
+  <si>
+    <t>删除人</t>
+  </si>
+  <si>
+    <t>DeletePerson</t>
+  </si>
+  <si>
+    <t>tb_sys_livechat</t>
+  </si>
+  <si>
     <t>id</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>直播表</t>
-  </si>
-  <si>
-    <t>直播间id</t>
-  </si>
-  <si>
-    <t>room_id</t>
-  </si>
-  <si>
-    <t>varchar</t>
-  </si>
-  <si>
-    <t>直播标题</t>
-  </si>
-  <si>
-    <t>live_title</t>
-  </si>
-  <si>
-    <t>直播开始时间</t>
-  </si>
-  <si>
-    <t>live_statrtime</t>
-  </si>
-  <si>
-    <t>datetime</t>
-  </si>
-  <si>
-    <t>直播结束时间</t>
-  </si>
-  <si>
-    <t>live_endtime</t>
-  </si>
-  <si>
-    <t>直播展示图片</t>
-  </si>
-  <si>
-    <t>live_img</t>
-  </si>
-  <si>
-    <t>直播状态</t>
-  </si>
-  <si>
-    <t>live_state</t>
-  </si>
-  <si>
-    <t>0:开启直播，1：关闭直播：2：账号违规</t>
-  </si>
-  <si>
-    <t>直播用户id</t>
-  </si>
-  <si>
-    <t>UserId</t>
-  </si>
-  <si>
-    <t>创建时间</t>
-  </si>
-  <si>
-    <t>CreationTime</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>修改时间</t>
-  </si>
-  <si>
-    <t>ModificationTime</t>
-  </si>
-  <si>
-    <t>删除时间</t>
-  </si>
-  <si>
-    <t>Deletetime</t>
-  </si>
-  <si>
-    <t>创建人</t>
-  </si>
-  <si>
-    <t>CreationPerson</t>
-  </si>
-  <si>
-    <t>修改人</t>
-  </si>
-  <si>
-    <t>ModificationPerson</t>
-  </si>
-  <si>
-    <t>删除人</t>
-  </si>
-  <si>
-    <t>DeletePerson</t>
-  </si>
-  <si>
-    <t>tb_sys_livechat</t>
   </si>
   <si>
     <t>直播聊天室</t>
@@ -8450,8 +8453,8 @@
   <sheetPr/>
   <dimension ref="A1:AE39"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27:L32"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27:H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -9182,7 +9185,7 @@
     <row r="21" spans="1:31">
       <c r="A21" s="18"/>
       <c r="B21" s="19" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="C21" s="20"/>
       <c r="D21" s="20"/>
@@ -9309,12 +9312,12 @@
         <v>1</v>
       </c>
       <c r="B24" s="52" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="C24" s="52"/>
       <c r="D24" s="52"/>
       <c r="E24" s="28" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="F24" s="29"/>
       <c r="G24" s="29"/>
@@ -9341,7 +9344,7 @@
       <c r="Z24" s="22"/>
       <c r="AA24" s="23"/>
       <c r="AB24" s="25" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="AC24" s="26"/>
       <c r="AD24" s="26"/>
@@ -9352,12 +9355,12 @@
         <v>2</v>
       </c>
       <c r="B25" s="52" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="C25" s="52"/>
       <c r="D25" s="52"/>
       <c r="E25" s="28" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="F25" s="29"/>
       <c r="G25" s="29"/>
@@ -10171,7 +10174,7 @@
   <dimension ref="A1:AE39"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="AF34" sqref="AF34"/>
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -10902,7 +10905,7 @@
     <row r="21" spans="1:31">
       <c r="A21" s="18"/>
       <c r="B21" s="19" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="C21" s="20"/>
       <c r="D21" s="20"/>
@@ -11029,7 +11032,7 @@
         <v>1</v>
       </c>
       <c r="B24" s="52" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C24" s="52"/>
       <c r="D24" s="52"/>
@@ -11061,7 +11064,7 @@
       <c r="Z24" s="22"/>
       <c r="AA24" s="23"/>
       <c r="AB24" s="25" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="AC24" s="26"/>
       <c r="AD24" s="26"/>
@@ -11072,12 +11075,12 @@
         <v>2</v>
       </c>
       <c r="B25" s="52" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="C25" s="52"/>
       <c r="D25" s="52"/>
       <c r="E25" s="28" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="F25" s="29"/>
       <c r="G25" s="29"/>
@@ -11833,7 +11836,7 @@
   <dimension ref="A1:AE47"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37:L42"/>
+      <selection activeCell="B24" sqref="B24:D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -12564,7 +12567,7 @@
     <row r="21" spans="1:31">
       <c r="A21" s="18"/>
       <c r="B21" s="19" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C21" s="20"/>
       <c r="D21" s="20"/>
@@ -12691,12 +12694,12 @@
         <v>1</v>
       </c>
       <c r="B24" s="52" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="C24" s="52"/>
       <c r="D24" s="52"/>
       <c r="E24" s="28" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="F24" s="29"/>
       <c r="G24" s="29"/>
@@ -12723,7 +12726,7 @@
       <c r="Z24" s="22"/>
       <c r="AA24" s="23"/>
       <c r="AB24" s="25" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="AC24" s="26"/>
       <c r="AD24" s="26"/>
@@ -12734,12 +12737,12 @@
         <v>2</v>
       </c>
       <c r="B25" s="52" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="C25" s="52"/>
       <c r="D25" s="52"/>
       <c r="E25" s="28" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="F25" s="29"/>
       <c r="G25" s="29"/>
@@ -12777,18 +12780,18 @@
         <v>3</v>
       </c>
       <c r="B26" s="48" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="C26" s="49"/>
       <c r="D26" s="61"/>
       <c r="E26" s="28" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="F26" s="29"/>
       <c r="G26" s="29"/>
       <c r="H26" s="30"/>
       <c r="I26" s="53" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="J26" s="54"/>
       <c r="K26" s="53"/>
@@ -12820,12 +12823,12 @@
         <v>4</v>
       </c>
       <c r="B27" s="74" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="C27" s="75"/>
       <c r="D27" s="76"/>
       <c r="E27" s="28" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="F27" s="29"/>
       <c r="G27" s="29"/>
@@ -12861,12 +12864,12 @@
         <v>5</v>
       </c>
       <c r="B28" s="74" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="C28" s="75"/>
       <c r="D28" s="76"/>
       <c r="E28" s="28" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="F28" s="29"/>
       <c r="G28" s="29"/>
@@ -12902,12 +12905,12 @@
         <v>6</v>
       </c>
       <c r="B29" s="74" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="C29" s="75"/>
       <c r="D29" s="76"/>
       <c r="E29" s="28" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="F29" s="29"/>
       <c r="G29" s="29"/>
@@ -12943,12 +12946,12 @@
         <v>7</v>
       </c>
       <c r="B30" s="74" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="C30" s="75"/>
       <c r="D30" s="76"/>
       <c r="E30" s="28" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="F30" s="29"/>
       <c r="G30" s="29"/>
@@ -12986,12 +12989,12 @@
         <v>8</v>
       </c>
       <c r="B31" s="74" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="C31" s="75"/>
       <c r="D31" s="76"/>
       <c r="E31" s="28" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="F31" s="29"/>
       <c r="G31" s="29"/>
@@ -13029,12 +13032,12 @@
         <v>9</v>
       </c>
       <c r="B32" s="74" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="C32" s="75"/>
       <c r="D32" s="76"/>
       <c r="E32" s="28" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="F32" s="29"/>
       <c r="G32" s="29"/>
@@ -13072,12 +13075,12 @@
         <v>10</v>
       </c>
       <c r="B33" s="74" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="C33" s="75"/>
       <c r="D33" s="76"/>
       <c r="E33" s="28" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="F33" s="29"/>
       <c r="G33" s="29"/>
@@ -13115,12 +13118,12 @@
         <v>11</v>
       </c>
       <c r="B34" s="74" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="C34" s="75"/>
       <c r="D34" s="76"/>
       <c r="E34" s="28" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="F34" s="29"/>
       <c r="G34" s="29"/>
@@ -13158,12 +13161,12 @@
         <v>12</v>
       </c>
       <c r="B35" s="74" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="C35" s="75"/>
       <c r="D35" s="76"/>
       <c r="E35" s="28" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="F35" s="29"/>
       <c r="G35" s="29"/>
@@ -14001,7 +14004,7 @@
   <dimension ref="A1:AE39"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28:L33"/>
+      <selection activeCell="B33" sqref="B24:D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -14732,7 +14735,7 @@
     <row r="21" spans="1:31">
       <c r="A21" s="18"/>
       <c r="B21" s="19" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="C21" s="20"/>
       <c r="D21" s="20"/>
@@ -14859,12 +14862,12 @@
         <v>1</v>
       </c>
       <c r="B24" s="52" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="C24" s="52"/>
       <c r="D24" s="52"/>
       <c r="E24" s="28" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="F24" s="29"/>
       <c r="G24" s="29"/>
@@ -14891,7 +14894,7 @@
       <c r="Z24" s="22"/>
       <c r="AA24" s="23"/>
       <c r="AB24" s="25" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="AC24" s="26"/>
       <c r="AD24" s="26"/>
@@ -14902,12 +14905,12 @@
         <v>2</v>
       </c>
       <c r="B25" s="52" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="C25" s="52"/>
       <c r="D25" s="52"/>
       <c r="E25" s="28" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="F25" s="29"/>
       <c r="G25" s="29"/>
@@ -14945,12 +14948,12 @@
         <v>3</v>
       </c>
       <c r="B26" s="48" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="C26" s="49"/>
       <c r="D26" s="61"/>
       <c r="E26" s="28" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="F26" s="29"/>
       <c r="G26" s="29"/>
@@ -15729,7 +15732,7 @@
   <dimension ref="A1:AE44"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36:L42"/>
+      <selection activeCell="E24" sqref="E24:H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -16460,7 +16463,7 @@
     <row r="21" spans="1:31">
       <c r="A21" s="18"/>
       <c r="B21" s="19" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="C21" s="20"/>
       <c r="D21" s="20"/>
@@ -16587,12 +16590,12 @@
         <v>1</v>
       </c>
       <c r="B24" s="31" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="C24" s="31"/>
       <c r="D24" s="31"/>
       <c r="E24" s="25" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="F24" s="26"/>
       <c r="G24" s="26"/>
@@ -16619,7 +16622,7 @@
       <c r="Z24" s="22"/>
       <c r="AA24" s="23"/>
       <c r="AB24" s="25" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="AC24" s="26"/>
       <c r="AD24" s="26"/>
@@ -16630,12 +16633,12 @@
         <v>2</v>
       </c>
       <c r="B25" s="31" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="C25" s="31"/>
       <c r="D25" s="31"/>
       <c r="E25" s="25" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="F25" s="26"/>
       <c r="G25" s="26"/>
@@ -16673,12 +16676,12 @@
         <v>3</v>
       </c>
       <c r="B26" s="31" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="C26" s="31"/>
       <c r="D26" s="31"/>
       <c r="E26" s="25" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="F26" s="26"/>
       <c r="G26" s="26"/>
@@ -16716,12 +16719,12 @@
         <v>4</v>
       </c>
       <c r="B27" s="31" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="C27" s="31"/>
       <c r="D27" s="31"/>
       <c r="E27" s="25" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="26"/>
@@ -16759,18 +16762,18 @@
         <v>5</v>
       </c>
       <c r="B28" s="31" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="C28" s="31"/>
       <c r="D28" s="31"/>
       <c r="E28" s="25" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="F28" s="26"/>
       <c r="G28" s="26"/>
       <c r="H28" s="27"/>
       <c r="I28" s="46" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="J28" s="47"/>
       <c r="K28" s="8"/>
@@ -16802,12 +16805,12 @@
         <v>6</v>
       </c>
       <c r="B29" s="31" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="C29" s="31"/>
       <c r="D29" s="31"/>
       <c r="E29" s="25" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="F29" s="26"/>
       <c r="G29" s="26"/>
@@ -16843,12 +16846,12 @@
         <v>7</v>
       </c>
       <c r="B30" s="31" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="C30" s="31"/>
       <c r="D30" s="31"/>
       <c r="E30" s="25" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="F30" s="26"/>
       <c r="G30" s="26"/>
@@ -16884,12 +16887,12 @@
         <v>8</v>
       </c>
       <c r="B31" s="31" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="C31" s="31"/>
       <c r="D31" s="31"/>
       <c r="E31" s="28" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="F31" s="29"/>
       <c r="G31" s="29"/>
@@ -16927,12 +16930,12 @@
         <v>9</v>
       </c>
       <c r="B32" s="31" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="C32" s="31"/>
       <c r="D32" s="31"/>
       <c r="E32" s="28" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="F32" s="29"/>
       <c r="G32" s="29"/>
@@ -16968,12 +16971,12 @@
         <v>10</v>
       </c>
       <c r="B33" s="31" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="C33" s="31"/>
       <c r="D33" s="31"/>
       <c r="E33" s="25" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="F33" s="26"/>
       <c r="G33" s="26"/>
@@ -17009,12 +17012,12 @@
         <v>11</v>
       </c>
       <c r="B34" s="31" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="C34" s="31"/>
       <c r="D34" s="31"/>
       <c r="E34" s="25" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="F34" s="26"/>
       <c r="G34" s="26"/>
@@ -17757,7 +17760,7 @@
   <dimension ref="A1:AE39"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30:N35"/>
+      <selection activeCell="I31" sqref="I31:J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -18488,7 +18491,7 @@
     <row r="21" spans="1:31">
       <c r="A21" s="18"/>
       <c r="B21" s="19" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="C21" s="20"/>
       <c r="D21" s="20"/>
@@ -18615,12 +18618,12 @@
         <v>1</v>
       </c>
       <c r="B24" s="31" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="C24" s="31"/>
       <c r="D24" s="31"/>
       <c r="E24" s="25" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="F24" s="26"/>
       <c r="G24" s="26"/>
@@ -18647,7 +18650,7 @@
       <c r="Z24" s="22"/>
       <c r="AA24" s="23"/>
       <c r="AB24" s="25" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="AC24" s="26"/>
       <c r="AD24" s="26"/>
@@ -18658,12 +18661,12 @@
         <v>2</v>
       </c>
       <c r="B25" s="31" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="C25" s="31"/>
       <c r="D25" s="31"/>
       <c r="E25" s="25" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="F25" s="26"/>
       <c r="G25" s="26"/>
@@ -18701,18 +18704,18 @@
         <v>3</v>
       </c>
       <c r="B26" s="31" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="C26" s="31"/>
       <c r="D26" s="31"/>
       <c r="E26" s="25" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="F26" s="26"/>
       <c r="G26" s="26"/>
       <c r="H26" s="27"/>
       <c r="I26" s="46" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="J26" s="47"/>
       <c r="K26" s="8"/>
@@ -18742,12 +18745,12 @@
         <v>4</v>
       </c>
       <c r="B27" s="31" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="C27" s="31"/>
       <c r="D27" s="31"/>
       <c r="E27" s="25" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="26"/>
@@ -18783,12 +18786,12 @@
         <v>5</v>
       </c>
       <c r="B28" s="31" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="C28" s="31"/>
       <c r="D28" s="31"/>
       <c r="E28" s="25" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="F28" s="26"/>
       <c r="G28" s="26"/>
@@ -19501,7 +19504,7 @@
   <dimension ref="A1:AE39"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26:N32"/>
+      <selection activeCell="E24" sqref="E24:H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -20232,7 +20235,7 @@
     <row r="21" spans="1:31">
       <c r="A21" s="18"/>
       <c r="B21" s="19" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="C21" s="20"/>
       <c r="D21" s="20"/>
@@ -20359,12 +20362,12 @@
         <v>1</v>
       </c>
       <c r="B24" s="71" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="C24" s="23"/>
       <c r="D24" s="24"/>
       <c r="E24" s="73" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="F24" s="26"/>
       <c r="G24" s="26"/>
@@ -20391,7 +20394,7 @@
       <c r="Z24" s="22"/>
       <c r="AA24" s="23"/>
       <c r="AB24" s="25" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="AC24" s="26"/>
       <c r="AD24" s="26"/>
@@ -20402,12 +20405,12 @@
         <v>2</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="C25" s="23"/>
       <c r="D25" s="24"/>
       <c r="E25" s="25" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="F25" s="26"/>
       <c r="G25" s="26"/>
@@ -21223,7 +21226,7 @@
   <dimension ref="A1:AE39"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33:L39"/>
+      <selection activeCell="E24" sqref="E24:H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -21954,7 +21957,7 @@
     <row r="21" spans="1:31">
       <c r="A21" s="18"/>
       <c r="B21" s="19" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="C21" s="20"/>
       <c r="D21" s="20"/>
@@ -22081,12 +22084,12 @@
         <v>1</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="C24" s="23"/>
       <c r="D24" s="24"/>
       <c r="E24" s="25" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="F24" s="26"/>
       <c r="G24" s="26"/>
@@ -22113,7 +22116,7 @@
       <c r="Z24" s="22"/>
       <c r="AA24" s="23"/>
       <c r="AB24" s="25" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="AC24" s="26"/>
       <c r="AD24" s="26"/>
@@ -22124,12 +22127,12 @@
         <v>2</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="C25" s="23"/>
       <c r="D25" s="24"/>
       <c r="E25" s="25" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="F25" s="26"/>
       <c r="G25" s="26"/>
@@ -22167,12 +22170,12 @@
         <v>2</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="C26" s="23"/>
       <c r="D26" s="24"/>
       <c r="E26" s="25" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="F26" s="26"/>
       <c r="G26" s="26"/>
@@ -22208,18 +22211,18 @@
         <v>3</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="C27" s="23"/>
       <c r="D27" s="24"/>
       <c r="E27" s="25" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="26"/>
       <c r="H27" s="27"/>
       <c r="I27" s="46" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="J27" s="47"/>
       <c r="K27" s="72"/>
@@ -22251,18 +22254,18 @@
         <v>4</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="C28" s="23"/>
       <c r="D28" s="24"/>
       <c r="E28" s="25" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="F28" s="26"/>
       <c r="G28" s="26"/>
       <c r="H28" s="27"/>
       <c r="I28" s="46" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="J28" s="47"/>
       <c r="K28" s="72"/>
@@ -22294,12 +22297,12 @@
         <v>6</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="C29" s="23"/>
       <c r="D29" s="24"/>
       <c r="E29" s="25" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="F29" s="26"/>
       <c r="G29" s="26"/>
@@ -22335,12 +22338,12 @@
         <v>7</v>
       </c>
       <c r="B30" s="22" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="C30" s="23"/>
       <c r="D30" s="24"/>
       <c r="E30" s="25" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="F30" s="26"/>
       <c r="G30" s="26"/>
@@ -22376,12 +22379,12 @@
         <v>8</v>
       </c>
       <c r="B31" s="22" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="C31" s="23"/>
       <c r="D31" s="24"/>
       <c r="E31" s="25" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="F31" s="26"/>
       <c r="G31" s="26"/>
@@ -22417,12 +22420,12 @@
         <v>9</v>
       </c>
       <c r="B32" s="22" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="C32" s="23"/>
       <c r="D32" s="24"/>
       <c r="E32" s="71" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="F32" s="23"/>
       <c r="G32" s="23"/>
@@ -23002,8 +23005,8 @@
   <sheetPr/>
   <dimension ref="A1:AE45"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37:L43"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="M40" sqref="M40:N40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -23734,7 +23737,7 @@
     <row r="21" spans="1:31">
       <c r="A21" s="18"/>
       <c r="B21" s="19" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="C21" s="20"/>
       <c r="D21" s="20"/>
@@ -23861,12 +23864,12 @@
         <v>1</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="C24" s="23"/>
       <c r="D24" s="24"/>
       <c r="E24" s="25" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="F24" s="26"/>
       <c r="G24" s="26"/>
@@ -23893,7 +23896,7 @@
       <c r="Z24" s="22"/>
       <c r="AA24" s="23"/>
       <c r="AB24" s="25" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="AC24" s="26"/>
       <c r="AD24" s="26"/>
@@ -23904,12 +23907,12 @@
         <v>2</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="C25" s="23"/>
       <c r="D25" s="24"/>
       <c r="E25" s="25" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="F25" s="26"/>
       <c r="G25" s="26"/>
@@ -23947,12 +23950,12 @@
         <v>3</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="C26" s="23"/>
       <c r="D26" s="24"/>
       <c r="E26" s="25" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="F26" s="26"/>
       <c r="G26" s="26"/>
@@ -23988,12 +23991,12 @@
         <v>4</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="C27" s="23"/>
       <c r="D27" s="24"/>
       <c r="E27" s="25" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="26"/>
@@ -24029,12 +24032,12 @@
         <v>6</v>
       </c>
       <c r="B28" s="31" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="C28" s="31"/>
       <c r="D28" s="31"/>
       <c r="E28" s="25" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="F28" s="26"/>
       <c r="G28" s="26"/>
@@ -24070,12 +24073,12 @@
         <v>7</v>
       </c>
       <c r="B29" s="31" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="C29" s="31"/>
       <c r="D29" s="31"/>
       <c r="E29" s="25" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="F29" s="26"/>
       <c r="G29" s="26"/>
@@ -24113,18 +24116,18 @@
         <v>8</v>
       </c>
       <c r="B30" s="31" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="C30" s="31"/>
       <c r="D30" s="31"/>
       <c r="E30" s="25" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="F30" s="26"/>
       <c r="G30" s="26"/>
       <c r="H30" s="27"/>
       <c r="I30" s="46" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="J30" s="47"/>
       <c r="K30" s="8"/>
@@ -24156,12 +24159,12 @@
         <v>9</v>
       </c>
       <c r="B31" s="31" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="C31" s="31"/>
       <c r="D31" s="31"/>
       <c r="E31" s="25" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="F31" s="26"/>
       <c r="G31" s="26"/>
@@ -24199,12 +24202,12 @@
         <v>10</v>
       </c>
       <c r="B32" s="31" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="C32" s="31"/>
       <c r="D32" s="31"/>
       <c r="E32" s="25" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="F32" s="26"/>
       <c r="G32" s="26"/>
@@ -24242,12 +24245,12 @@
         <v>11</v>
       </c>
       <c r="B33" s="31" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="C33" s="31"/>
       <c r="D33" s="31"/>
       <c r="E33" s="25" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="F33" s="26"/>
       <c r="G33" s="26"/>
@@ -24285,18 +24288,18 @@
         <v>12</v>
       </c>
       <c r="B34" s="31" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="C34" s="31"/>
       <c r="D34" s="31"/>
       <c r="E34" s="25" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="F34" s="26"/>
       <c r="G34" s="26"/>
       <c r="H34" s="27"/>
       <c r="I34" s="46" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="J34" s="47"/>
       <c r="K34" s="50"/>
@@ -24328,18 +24331,18 @@
         <v>13</v>
       </c>
       <c r="B35" s="22" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="C35" s="23"/>
       <c r="D35" s="24"/>
       <c r="E35" s="25" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="F35" s="26"/>
       <c r="G35" s="26"/>
       <c r="H35" s="27"/>
       <c r="I35" s="46" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="J35" s="47"/>
       <c r="K35" s="46"/>
@@ -24371,18 +24374,18 @@
         <v>14</v>
       </c>
       <c r="B36" s="22" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="C36" s="23"/>
       <c r="D36" s="24"/>
       <c r="E36" s="25" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="F36" s="26"/>
       <c r="G36" s="26"/>
       <c r="H36" s="27"/>
       <c r="I36" s="46" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="J36" s="47"/>
       <c r="K36" s="46"/>
@@ -25095,7 +25098,7 @@
   <dimension ref="A1:AE39"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="AB24" sqref="AB24:AE24"/>
+      <selection activeCell="E24" sqref="E24:H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -25826,7 +25829,7 @@
     <row r="21" spans="1:31">
       <c r="A21" s="18"/>
       <c r="B21" s="19" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="C21" s="20"/>
       <c r="D21" s="20"/>
@@ -25953,12 +25956,12 @@
         <v>1</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="C24" s="23"/>
       <c r="D24" s="24"/>
       <c r="E24" s="25" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="F24" s="26"/>
       <c r="G24" s="26"/>
@@ -25985,7 +25988,7 @@
       <c r="Z24" s="22"/>
       <c r="AA24" s="23"/>
       <c r="AB24" s="25" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="AC24" s="26"/>
       <c r="AD24" s="26"/>
@@ -25996,12 +25999,12 @@
         <v>2</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="C25" s="23"/>
       <c r="D25" s="24"/>
       <c r="E25" s="25" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="F25" s="26"/>
       <c r="G25" s="26"/>
@@ -26039,12 +26042,12 @@
         <v>3</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="C26" s="23"/>
       <c r="D26" s="24"/>
       <c r="E26" s="25" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="F26" s="26"/>
       <c r="G26" s="26"/>
@@ -26080,12 +26083,12 @@
         <v>4</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="C27" s="23"/>
       <c r="D27" s="24"/>
       <c r="E27" s="25" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="26"/>
@@ -26121,12 +26124,12 @@
         <v>6</v>
       </c>
       <c r="B28" s="31" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="C28" s="31"/>
       <c r="D28" s="31"/>
       <c r="E28" s="25" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="F28" s="26"/>
       <c r="G28" s="26"/>
@@ -26162,12 +26165,12 @@
         <v>7</v>
       </c>
       <c r="B29" s="31" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="C29" s="31"/>
       <c r="D29" s="31"/>
       <c r="E29" s="25" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="F29" s="26"/>
       <c r="G29" s="26"/>
@@ -30765,8 +30768,8 @@
   <sheetPr/>
   <dimension ref="A1:AE39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="X31" sqref="X31:Y31"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="N48" sqref="N48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -31497,7 +31500,7 @@
     <row r="21" spans="1:31">
       <c r="A21" s="18"/>
       <c r="B21" s="19" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="C21" s="20"/>
       <c r="D21" s="20"/>
@@ -31624,12 +31627,12 @@
         <v>1</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="C24" s="23"/>
       <c r="D24" s="24"/>
       <c r="E24" s="25" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="F24" s="26"/>
       <c r="G24" s="26"/>
@@ -31656,7 +31659,7 @@
       <c r="Z24" s="22"/>
       <c r="AA24" s="23"/>
       <c r="AB24" s="25" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="AC24" s="26"/>
       <c r="AD24" s="26"/>
@@ -31667,12 +31670,12 @@
         <v>2</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="C25" s="23"/>
       <c r="D25" s="24"/>
       <c r="E25" s="25" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="F25" s="26"/>
       <c r="G25" s="26"/>
@@ -31708,12 +31711,12 @@
         <v>3</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="C26" s="23"/>
       <c r="D26" s="24"/>
       <c r="E26" s="28" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="F26" s="29"/>
       <c r="G26" s="29"/>
@@ -31749,18 +31752,18 @@
         <v>4</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="C27" s="23"/>
       <c r="D27" s="24"/>
       <c r="E27" s="25" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="26"/>
       <c r="H27" s="27"/>
       <c r="I27" s="46" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="J27" s="47"/>
       <c r="K27" s="8"/>
@@ -31792,12 +31795,12 @@
         <v>6</v>
       </c>
       <c r="B28" s="31" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="C28" s="31"/>
       <c r="D28" s="31"/>
       <c r="E28" s="28" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="F28" s="29"/>
       <c r="G28" s="29"/>
@@ -31835,12 +31838,12 @@
         <v>7</v>
       </c>
       <c r="B29" s="31" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="C29" s="31"/>
       <c r="D29" s="31"/>
       <c r="E29" s="28" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="F29" s="29"/>
       <c r="G29" s="29"/>
@@ -31878,12 +31881,12 @@
         <v>8</v>
       </c>
       <c r="B30" s="31" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="C30" s="31"/>
       <c r="D30" s="31"/>
       <c r="E30" s="28" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="F30" s="29"/>
       <c r="G30" s="29"/>
@@ -31919,18 +31922,18 @@
         <v>9</v>
       </c>
       <c r="B31" s="31" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="C31" s="31"/>
       <c r="D31" s="31"/>
       <c r="E31" s="28" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="F31" s="29"/>
       <c r="G31" s="29"/>
       <c r="H31" s="30"/>
       <c r="I31" s="46" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="J31" s="47"/>
       <c r="K31" s="50"/>
@@ -32538,7 +32541,7 @@
   <dimension ref="A1:AE59"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="O35" sqref="O35:Q35"/>
+      <selection activeCell="E31" sqref="E24:H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -34748,7 +34751,7 @@
   <dimension ref="A1:AE39"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33:H33"/>
+      <selection activeCell="E24" sqref="E24:H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -35611,7 +35614,7 @@
       <c r="C24" s="23"/>
       <c r="D24" s="24"/>
       <c r="E24" s="25" t="s">
-        <v>544</v>
+        <v>578</v>
       </c>
       <c r="F24" s="26"/>
       <c r="G24" s="26"/>
@@ -35638,7 +35641,7 @@
       <c r="Z24" s="22"/>
       <c r="AA24" s="23"/>
       <c r="AB24" s="25" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="AC24" s="26"/>
       <c r="AD24" s="26"/>
@@ -35649,12 +35652,12 @@
         <v>2</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C25" s="23"/>
       <c r="D25" s="24"/>
       <c r="E25" s="25" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="F25" s="26"/>
       <c r="G25" s="26"/>
@@ -35690,12 +35693,12 @@
         <v>3</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C26" s="23"/>
       <c r="D26" s="24"/>
       <c r="E26" s="25" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="F26" s="26"/>
       <c r="G26" s="26"/>
@@ -35731,12 +35734,12 @@
         <v>4</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="C27" s="23"/>
       <c r="D27" s="24"/>
       <c r="E27" s="25" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="26"/>
@@ -36451,8 +36454,8 @@
   <sheetPr/>
   <dimension ref="A1:AE39"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="X47" sqref="X47"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="R33" sqref="R33:U33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -37183,7 +37186,7 @@
     <row r="21" spans="1:31">
       <c r="A21" s="18"/>
       <c r="B21" s="19" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C21" s="20"/>
       <c r="D21" s="20"/>
@@ -37310,12 +37313,12 @@
         <v>1</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C24" s="23"/>
       <c r="D24" s="24"/>
       <c r="E24" s="25" t="s">
-        <v>544</v>
+        <v>578</v>
       </c>
       <c r="F24" s="26"/>
       <c r="G24" s="26"/>
@@ -37342,7 +37345,7 @@
       <c r="Z24" s="22"/>
       <c r="AA24" s="23"/>
       <c r="AB24" s="25" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="AC24" s="26"/>
       <c r="AD24" s="26"/>
@@ -37353,12 +37356,12 @@
         <v>3</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C25" s="23"/>
       <c r="D25" s="24"/>
       <c r="E25" s="25" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="F25" s="26"/>
       <c r="G25" s="26"/>
@@ -37394,12 +37397,12 @@
         <v>4</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C26" s="23"/>
       <c r="D26" s="24"/>
       <c r="E26" s="25" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="F26" s="26"/>
       <c r="G26" s="26"/>
@@ -38218,7 +38221,7 @@
   <dimension ref="A1:AE46"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39:L44"/>
+      <selection activeCell="E42" sqref="E42:H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -38949,7 +38952,7 @@
     <row r="21" spans="1:31">
       <c r="A21" s="18"/>
       <c r="B21" s="19" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="C21" s="20"/>
       <c r="D21" s="20"/>
@@ -39076,7 +39079,7 @@
         <v>1</v>
       </c>
       <c r="B24" s="52" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C24" s="52"/>
       <c r="D24" s="52"/>
@@ -39108,7 +39111,7 @@
       <c r="Z24" s="22"/>
       <c r="AA24" s="23"/>
       <c r="AB24" s="25" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="AC24" s="26"/>
       <c r="AD24" s="26"/>
@@ -39119,12 +39122,12 @@
         <v>2</v>
       </c>
       <c r="B25" s="52" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C25" s="52"/>
       <c r="D25" s="52"/>
       <c r="E25" s="28" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="F25" s="29"/>
       <c r="G25" s="29"/>
@@ -39162,12 +39165,12 @@
         <v>3</v>
       </c>
       <c r="B26" s="48" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C26" s="49"/>
       <c r="D26" s="61"/>
       <c r="E26" s="28" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="F26" s="29"/>
       <c r="G26" s="29"/>
@@ -39205,12 +39208,12 @@
         <v>4</v>
       </c>
       <c r="B27" s="74" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="C27" s="75"/>
       <c r="D27" s="76"/>
       <c r="E27" s="28" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="F27" s="29"/>
       <c r="G27" s="29"/>
@@ -39248,12 +39251,12 @@
         <v>5</v>
       </c>
       <c r="B28" s="52" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="C28" s="52"/>
       <c r="D28" s="52"/>
       <c r="E28" s="28" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="F28" s="29"/>
       <c r="G28" s="29"/>
@@ -39289,12 +39292,12 @@
         <v>6</v>
       </c>
       <c r="B29" s="52" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C29" s="52"/>
       <c r="D29" s="52"/>
       <c r="E29" s="28" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="F29" s="29"/>
       <c r="G29" s="29"/>
@@ -39330,12 +39333,12 @@
         <v>7</v>
       </c>
       <c r="B30" s="52" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="C30" s="52"/>
       <c r="D30" s="52"/>
       <c r="E30" s="28" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="F30" s="29"/>
       <c r="G30" s="29"/>
@@ -39373,12 +39376,12 @@
         <v>8</v>
       </c>
       <c r="B31" s="52" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C31" s="52"/>
       <c r="D31" s="52"/>
       <c r="E31" s="28" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="F31" s="29"/>
       <c r="G31" s="29"/>
@@ -39416,12 +39419,12 @@
         <v>9</v>
       </c>
       <c r="B32" s="52" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="C32" s="52"/>
       <c r="D32" s="52"/>
       <c r="E32" s="28" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="F32" s="29"/>
       <c r="G32" s="29"/>
@@ -39457,12 +39460,12 @@
         <v>10</v>
       </c>
       <c r="B33" s="52" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="C33" s="52"/>
       <c r="D33" s="52"/>
       <c r="E33" s="28" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="F33" s="29"/>
       <c r="G33" s="29"/>
@@ -39500,12 +39503,12 @@
         <v>11</v>
       </c>
       <c r="B34" s="52" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="C34" s="52"/>
       <c r="D34" s="52"/>
       <c r="E34" s="28" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="F34" s="29"/>
       <c r="G34" s="29"/>
@@ -39543,12 +39546,12 @@
         <v>12</v>
       </c>
       <c r="B35" s="52" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C35" s="52"/>
       <c r="D35" s="52"/>
       <c r="E35" s="28" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="F35" s="29"/>
       <c r="G35" s="29"/>
@@ -39586,18 +39589,18 @@
         <v>13</v>
       </c>
       <c r="B36" s="52" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="C36" s="52"/>
       <c r="D36" s="52"/>
       <c r="E36" s="28" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="F36" s="29"/>
       <c r="G36" s="29"/>
       <c r="H36" s="30"/>
       <c r="I36" s="53" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="J36" s="54"/>
       <c r="K36" s="72"/>
@@ -39629,12 +39632,12 @@
         <v>14</v>
       </c>
       <c r="B37" s="52" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="C37" s="52"/>
       <c r="D37" s="52"/>
       <c r="E37" s="28" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="F37" s="29"/>
       <c r="G37" s="29"/>
@@ -40364,7 +40367,7 @@
   <dimension ref="A1:AE39"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="X32" sqref="X32:Y32"/>
+      <selection activeCell="B21" sqref="B21:N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -41095,7 +41098,7 @@
     <row r="21" spans="1:31">
       <c r="A21" s="18"/>
       <c r="B21" s="19" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C21" s="20"/>
       <c r="D21" s="20"/>
@@ -41222,12 +41225,12 @@
         <v>1</v>
       </c>
       <c r="B24" s="77" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="C24" s="77"/>
       <c r="D24" s="77"/>
       <c r="E24" s="28" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="F24" s="29"/>
       <c r="G24" s="29"/>
@@ -41254,7 +41257,7 @@
       <c r="Z24" s="22"/>
       <c r="AA24" s="23"/>
       <c r="AB24" s="25" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="AC24" s="26"/>
       <c r="AD24" s="26"/>
@@ -41265,12 +41268,12 @@
         <v>2</v>
       </c>
       <c r="B25" s="77" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="C25" s="77"/>
       <c r="D25" s="77"/>
       <c r="E25" s="28" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="F25" s="29"/>
       <c r="G25" s="29"/>
@@ -41308,12 +41311,12 @@
         <v>3</v>
       </c>
       <c r="B26" s="77" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="C26" s="77"/>
       <c r="D26" s="77"/>
       <c r="E26" s="28" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="F26" s="29"/>
       <c r="G26" s="29"/>
@@ -41349,12 +41352,12 @@
         <v>4</v>
       </c>
       <c r="B27" s="77" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C27" s="77"/>
       <c r="D27" s="77"/>
       <c r="E27" s="28" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="F27" s="29"/>
       <c r="G27" s="29"/>
@@ -41390,12 +41393,12 @@
         <v>5</v>
       </c>
       <c r="B28" s="77" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C28" s="77"/>
       <c r="D28" s="77"/>
       <c r="E28" s="28" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="F28" s="29"/>
       <c r="G28" s="29"/>
@@ -41433,12 +41436,12 @@
         <v>6</v>
       </c>
       <c r="B29" s="77" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="C29" s="77"/>
       <c r="D29" s="77"/>
       <c r="E29" s="28" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="F29" s="29"/>
       <c r="G29" s="29"/>
@@ -41476,12 +41479,12 @@
         <v>7</v>
       </c>
       <c r="B30" s="77" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="C30" s="77"/>
       <c r="D30" s="77"/>
       <c r="E30" s="28" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="F30" s="29"/>
       <c r="G30" s="29"/>
@@ -41519,12 +41522,12 @@
         <v>8</v>
       </c>
       <c r="B31" s="77" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="C31" s="77"/>
       <c r="D31" s="77"/>
       <c r="E31" s="28" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="F31" s="29"/>
       <c r="G31" s="29"/>
@@ -41562,12 +41565,12 @@
         <v>9</v>
       </c>
       <c r="B32" s="77" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C32" s="77"/>
       <c r="D32" s="77"/>
       <c r="E32" s="28" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="F32" s="29"/>
       <c r="G32" s="29"/>
@@ -42150,7 +42153,7 @@
   <dimension ref="A1:AE39"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="AB24" sqref="AB24:AE24"/>
+      <selection activeCell="B21" sqref="B21:N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -42881,7 +42884,7 @@
     <row r="21" spans="1:31">
       <c r="A21" s="18"/>
       <c r="B21" s="19" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="C21" s="20"/>
       <c r="D21" s="20"/>
@@ -43008,12 +43011,12 @@
         <v>1</v>
       </c>
       <c r="B24" s="77" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="C24" s="77"/>
       <c r="D24" s="77"/>
       <c r="E24" s="28" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="F24" s="29"/>
       <c r="G24" s="29"/>
@@ -43040,7 +43043,7 @@
       <c r="Z24" s="22"/>
       <c r="AA24" s="23"/>
       <c r="AB24" s="25" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="AC24" s="26"/>
       <c r="AD24" s="26"/>
@@ -43051,12 +43054,12 @@
         <v>2</v>
       </c>
       <c r="B25" s="77" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="C25" s="77"/>
       <c r="D25" s="77"/>
       <c r="E25" s="28" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="F25" s="29"/>
       <c r="G25" s="29"/>
@@ -43842,7 +43845,7 @@
   <dimension ref="A1:AE39"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="AB24" sqref="AB24:AE24"/>
+      <selection activeCell="B21" sqref="B21:N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -44573,7 +44576,7 @@
     <row r="21" spans="1:31">
       <c r="A21" s="18"/>
       <c r="B21" s="19" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="C21" s="20"/>
       <c r="D21" s="20"/>
@@ -44700,12 +44703,12 @@
         <v>1</v>
       </c>
       <c r="B24" s="77" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="C24" s="77"/>
       <c r="D24" s="77"/>
       <c r="E24" s="28" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="F24" s="29"/>
       <c r="G24" s="29"/>
@@ -44732,7 +44735,7 @@
       <c r="Z24" s="22"/>
       <c r="AA24" s="23"/>
       <c r="AB24" s="25" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="AC24" s="26"/>
       <c r="AD24" s="26"/>
@@ -44743,12 +44746,12 @@
         <v>2</v>
       </c>
       <c r="B25" s="77" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="C25" s="77"/>
       <c r="D25" s="77"/>
       <c r="E25" s="28" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="F25" s="29"/>
       <c r="G25" s="29"/>
@@ -44786,12 +44789,12 @@
         <v>3</v>
       </c>
       <c r="B26" s="77" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="C26" s="77"/>
       <c r="D26" s="77"/>
       <c r="E26" s="28" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="F26" s="29"/>
       <c r="G26" s="29"/>
@@ -44829,12 +44832,12 @@
         <v>4</v>
       </c>
       <c r="B27" s="77" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="C27" s="77"/>
       <c r="D27" s="77"/>
       <c r="E27" s="28" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="F27" s="29"/>
       <c r="G27" s="29"/>
